--- a/Generating_Flight_Mission_Cycle/output.xlsx
+++ b/Generating_Flight_Mission_Cycle/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C561"/>
+  <dimension ref="A1:C1125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6611,6 +6611,6210 @@
         <v>-2.266215559059192e-14</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>140.1052631578947</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1.052631578947368</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>140.2105263157895</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0</v>
+      </c>
+      <c r="C564" t="n">
+        <v>2.105263157894737</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>140.3157894736842</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0</v>
+      </c>
+      <c r="C565" t="n">
+        <v>3.157894736842105</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>140.421052631579</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0</v>
+      </c>
+      <c r="C566" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>140.5263157894737</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0</v>
+      </c>
+      <c r="C567" t="n">
+        <v>5.263157894736842</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>140.6315789473684</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0</v>
+      </c>
+      <c r="C568" t="n">
+        <v>6.315789473684211</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>140.7368421052632</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0</v>
+      </c>
+      <c r="C569" t="n">
+        <v>7.368421052631579</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>140.8421052631579</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0</v>
+      </c>
+      <c r="C570" t="n">
+        <v>8.421052631578947</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>140.9473684210526</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0</v>
+      </c>
+      <c r="C571" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>141.0526315789474</v>
+      </c>
+      <c r="B572" t="n">
+        <v>30</v>
+      </c>
+      <c r="C572" t="n">
+        <v>10.52631578947368</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>141.1578947368421</v>
+      </c>
+      <c r="B573" t="n">
+        <v>30</v>
+      </c>
+      <c r="C573" t="n">
+        <v>11.57894736842105</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>141.2631578947368</v>
+      </c>
+      <c r="B574" t="n">
+        <v>30</v>
+      </c>
+      <c r="C574" t="n">
+        <v>12.63157894736842</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>141.3684210526316</v>
+      </c>
+      <c r="B575" t="n">
+        <v>30</v>
+      </c>
+      <c r="C575" t="n">
+        <v>13.68421052631579</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>141.4736842105263</v>
+      </c>
+      <c r="B576" t="n">
+        <v>30</v>
+      </c>
+      <c r="C576" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>141.578947368421</v>
+      </c>
+      <c r="B577" t="n">
+        <v>30</v>
+      </c>
+      <c r="C577" t="n">
+        <v>15.78947368421053</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>141.6842105263158</v>
+      </c>
+      <c r="B578" t="n">
+        <v>30</v>
+      </c>
+      <c r="C578" t="n">
+        <v>16.84210526315789</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>141.7894736842105</v>
+      </c>
+      <c r="B579" t="n">
+        <v>30</v>
+      </c>
+      <c r="C579" t="n">
+        <v>17.89473684210526</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>141.8947368421053</v>
+      </c>
+      <c r="B580" t="n">
+        <v>30</v>
+      </c>
+      <c r="C580" t="n">
+        <v>18.94736842105263</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B581" t="n">
+        <v>30</v>
+      </c>
+      <c r="C581" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B582" t="n">
+        <v>30</v>
+      </c>
+      <c r="C582" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>142.2631578947368</v>
+      </c>
+      <c r="B583" t="n">
+        <v>30</v>
+      </c>
+      <c r="C583" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>142.5263157894737</v>
+      </c>
+      <c r="B584" t="n">
+        <v>30</v>
+      </c>
+      <c r="C584" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>142.7894736842105</v>
+      </c>
+      <c r="B585" t="n">
+        <v>30</v>
+      </c>
+      <c r="C585" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>143.0526315789474</v>
+      </c>
+      <c r="B586" t="n">
+        <v>0</v>
+      </c>
+      <c r="C586" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>143.3157894736842</v>
+      </c>
+      <c r="B587" t="n">
+        <v>0</v>
+      </c>
+      <c r="C587" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>143.578947368421</v>
+      </c>
+      <c r="B588" t="n">
+        <v>0</v>
+      </c>
+      <c r="C588" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>143.8421052631579</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>144.1052631578947</v>
+      </c>
+      <c r="B590" t="n">
+        <v>0</v>
+      </c>
+      <c r="C590" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>144.3684210526316</v>
+      </c>
+      <c r="B591" t="n">
+        <v>0</v>
+      </c>
+      <c r="C591" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>144.6315789473684</v>
+      </c>
+      <c r="B592" t="n">
+        <v>0</v>
+      </c>
+      <c r="C592" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>144.8947368421053</v>
+      </c>
+      <c r="B593" t="n">
+        <v>0</v>
+      </c>
+      <c r="C593" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>145.1578947368421</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0</v>
+      </c>
+      <c r="C594" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>145.421052631579</v>
+      </c>
+      <c r="B595" t="n">
+        <v>0</v>
+      </c>
+      <c r="C595" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>145.6842105263158</v>
+      </c>
+      <c r="B596" t="n">
+        <v>0</v>
+      </c>
+      <c r="C596" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>145.9473684210526</v>
+      </c>
+      <c r="B597" t="n">
+        <v>0</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>146.2105263157895</v>
+      </c>
+      <c r="B598" t="n">
+        <v>0</v>
+      </c>
+      <c r="C598" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>146.4736842105263</v>
+      </c>
+      <c r="B599" t="n">
+        <v>0</v>
+      </c>
+      <c r="C599" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>146.7368421052632</v>
+      </c>
+      <c r="B600" t="n">
+        <v>0</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B601" t="n">
+        <v>0</v>
+      </c>
+      <c r="C601" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B602" t="n">
+        <v>0</v>
+      </c>
+      <c r="C602" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>147.2631578947368</v>
+      </c>
+      <c r="B603" t="n">
+        <v>0</v>
+      </c>
+      <c r="C603" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>147.5263157894737</v>
+      </c>
+      <c r="B604" t="n">
+        <v>0</v>
+      </c>
+      <c r="C604" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>147.7894736842105</v>
+      </c>
+      <c r="B605" t="n">
+        <v>0</v>
+      </c>
+      <c r="C605" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>148.0526315789474</v>
+      </c>
+      <c r="B606" t="n">
+        <v>0</v>
+      </c>
+      <c r="C606" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>148.3157894736842</v>
+      </c>
+      <c r="B607" t="n">
+        <v>0</v>
+      </c>
+      <c r="C607" t="n">
+        <v>-16.84210526315789</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>148.578947368421</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0</v>
+      </c>
+      <c r="C608" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>148.8421052631579</v>
+      </c>
+      <c r="B609" t="n">
+        <v>0</v>
+      </c>
+      <c r="C609" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>149.1052631578947</v>
+      </c>
+      <c r="B610" t="n">
+        <v>0</v>
+      </c>
+      <c r="C610" t="n">
+        <v>-8.94736842105263</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>149.3684210526316</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0</v>
+      </c>
+      <c r="C611" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>149.6315789473684</v>
+      </c>
+      <c r="B612" t="n">
+        <v>0</v>
+      </c>
+      <c r="C612" t="n">
+        <v>-3.684210526315788</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>149.8947368421053</v>
+      </c>
+      <c r="B613" t="n">
+        <v>0</v>
+      </c>
+      <c r="C613" t="n">
+        <v>-1.052631578947366</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>150.1578947368421</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1.578947368421055</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>150.421052631579</v>
+      </c>
+      <c r="B615" t="n">
+        <v>0</v>
+      </c>
+      <c r="C615" t="n">
+        <v>4.21052631578948</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>150.6842105263158</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0</v>
+      </c>
+      <c r="C616" t="n">
+        <v>6.842105263157897</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>150.9473684210526</v>
+      </c>
+      <c r="B617" t="n">
+        <v>0</v>
+      </c>
+      <c r="C617" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>151.2105263157895</v>
+      </c>
+      <c r="B618" t="n">
+        <v>30</v>
+      </c>
+      <c r="C618" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>151.4736842105263</v>
+      </c>
+      <c r="B619" t="n">
+        <v>30</v>
+      </c>
+      <c r="C619" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>151.7368421052632</v>
+      </c>
+      <c r="B620" t="n">
+        <v>30</v>
+      </c>
+      <c r="C620" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B621" t="n">
+        <v>30</v>
+      </c>
+      <c r="C621" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B622" t="n">
+        <v>30</v>
+      </c>
+      <c r="C622" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>152.2631578947368</v>
+      </c>
+      <c r="B623" t="n">
+        <v>30</v>
+      </c>
+      <c r="C623" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>152.5263157894737</v>
+      </c>
+      <c r="B624" t="n">
+        <v>30</v>
+      </c>
+      <c r="C624" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>152.7894736842105</v>
+      </c>
+      <c r="B625" t="n">
+        <v>30</v>
+      </c>
+      <c r="C625" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>153.0526315789474</v>
+      </c>
+      <c r="B626" t="n">
+        <v>0</v>
+      </c>
+      <c r="C626" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>153.3157894736842</v>
+      </c>
+      <c r="B627" t="n">
+        <v>0</v>
+      </c>
+      <c r="C627" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>153.578947368421</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0</v>
+      </c>
+      <c r="C628" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>153.8421052631579</v>
+      </c>
+      <c r="B629" t="n">
+        <v>0</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>154.1052631578947</v>
+      </c>
+      <c r="B630" t="n">
+        <v>0</v>
+      </c>
+      <c r="C630" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>154.3684210526316</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0</v>
+      </c>
+      <c r="C631" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>154.6315789473684</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0</v>
+      </c>
+      <c r="C632" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>154.8947368421053</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0</v>
+      </c>
+      <c r="C633" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>155.1578947368421</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0</v>
+      </c>
+      <c r="C634" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>155.421052631579</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0</v>
+      </c>
+      <c r="C635" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>155.6842105263158</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0</v>
+      </c>
+      <c r="C636" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>155.9473684210526</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0</v>
+      </c>
+      <c r="C637" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>156.2105263157895</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0</v>
+      </c>
+      <c r="C638" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>156.4736842105263</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0</v>
+      </c>
+      <c r="C639" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>156.7368421052632</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0</v>
+      </c>
+      <c r="C640" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0</v>
+      </c>
+      <c r="C641" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>157.2631578947368</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0</v>
+      </c>
+      <c r="C643" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>157.5263157894737</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0</v>
+      </c>
+      <c r="C644" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>157.7894736842105</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0</v>
+      </c>
+      <c r="C645" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>158.0526315789474</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0</v>
+      </c>
+      <c r="C646" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>158.3157894736842</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0</v>
+      </c>
+      <c r="C647" t="n">
+        <v>-16.84210526315789</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>158.578947368421</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0</v>
+      </c>
+      <c r="C648" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>158.8421052631579</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0</v>
+      </c>
+      <c r="C649" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>159.1052631578947</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0</v>
+      </c>
+      <c r="C650" t="n">
+        <v>-8.94736842105263</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>159.3684210526316</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0</v>
+      </c>
+      <c r="C651" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>159.6315789473684</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0</v>
+      </c>
+      <c r="C652" t="n">
+        <v>-3.684210526315788</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>159.8947368421053</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0</v>
+      </c>
+      <c r="C653" t="n">
+        <v>-1.052631578947366</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>160.1578947368421</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1.578947368421055</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>160.421052631579</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0</v>
+      </c>
+      <c r="C655" t="n">
+        <v>4.21052631578948</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>160.6842105263158</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0</v>
+      </c>
+      <c r="C656" t="n">
+        <v>6.842105263157897</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>160.9473684210526</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0</v>
+      </c>
+      <c r="C657" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>161.2105263157895</v>
+      </c>
+      <c r="B658" t="n">
+        <v>30</v>
+      </c>
+      <c r="C658" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>161.4736842105263</v>
+      </c>
+      <c r="B659" t="n">
+        <v>30</v>
+      </c>
+      <c r="C659" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>161.7368421052632</v>
+      </c>
+      <c r="B660" t="n">
+        <v>30</v>
+      </c>
+      <c r="C660" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B661" t="n">
+        <v>30</v>
+      </c>
+      <c r="C661" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B662" t="n">
+        <v>30</v>
+      </c>
+      <c r="C662" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>162.2631578947368</v>
+      </c>
+      <c r="B663" t="n">
+        <v>30</v>
+      </c>
+      <c r="C663" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>162.5263157894737</v>
+      </c>
+      <c r="B664" t="n">
+        <v>30</v>
+      </c>
+      <c r="C664" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>162.7894736842105</v>
+      </c>
+      <c r="B665" t="n">
+        <v>30</v>
+      </c>
+      <c r="C665" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>163.0526315789474</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0</v>
+      </c>
+      <c r="C666" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>163.3157894736842</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0</v>
+      </c>
+      <c r="C667" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>163.578947368421</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0</v>
+      </c>
+      <c r="C668" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>163.8421052631579</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0</v>
+      </c>
+      <c r="C669" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>164.1052631578947</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0</v>
+      </c>
+      <c r="C670" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>164.3684210526316</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0</v>
+      </c>
+      <c r="C671" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>164.6315789473684</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0</v>
+      </c>
+      <c r="C672" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>164.8947368421053</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0</v>
+      </c>
+      <c r="C673" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>165.1578947368421</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0</v>
+      </c>
+      <c r="C674" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>165.421052631579</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0</v>
+      </c>
+      <c r="C675" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>165.6842105263158</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0</v>
+      </c>
+      <c r="C676" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>165.9473684210526</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0</v>
+      </c>
+      <c r="C677" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>166.2105263157895</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0</v>
+      </c>
+      <c r="C678" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>166.4736842105263</v>
+      </c>
+      <c r="B679" t="n">
+        <v>0</v>
+      </c>
+      <c r="C679" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>166.7368421052632</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0</v>
+      </c>
+      <c r="C680" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0</v>
+      </c>
+      <c r="C681" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0</v>
+      </c>
+      <c r="C682" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>167.2631578947368</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0</v>
+      </c>
+      <c r="C683" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>167.5263157894737</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0</v>
+      </c>
+      <c r="C684" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>167.7894736842105</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0</v>
+      </c>
+      <c r="C685" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>168.0526315789474</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0</v>
+      </c>
+      <c r="C686" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>168.3157894736842</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0</v>
+      </c>
+      <c r="C687" t="n">
+        <v>-16.84210526315789</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>168.578947368421</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0</v>
+      </c>
+      <c r="C688" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>168.8421052631579</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0</v>
+      </c>
+      <c r="C689" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>169.1052631578947</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0</v>
+      </c>
+      <c r="C690" t="n">
+        <v>-8.94736842105263</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>169.3684210526316</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0</v>
+      </c>
+      <c r="C691" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>169.6315789473684</v>
+      </c>
+      <c r="B692" t="n">
+        <v>0</v>
+      </c>
+      <c r="C692" t="n">
+        <v>-3.684210526315788</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>169.8947368421053</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0</v>
+      </c>
+      <c r="C693" t="n">
+        <v>-1.052631578947366</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>170.1578947368421</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0</v>
+      </c>
+      <c r="C694" t="n">
+        <v>1.578947368421055</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>170.421052631579</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0</v>
+      </c>
+      <c r="C695" t="n">
+        <v>4.21052631578948</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>170.6842105263158</v>
+      </c>
+      <c r="B696" t="n">
+        <v>0</v>
+      </c>
+      <c r="C696" t="n">
+        <v>6.842105263157897</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>170.9473684210526</v>
+      </c>
+      <c r="B697" t="n">
+        <v>0</v>
+      </c>
+      <c r="C697" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>171.2105263157895</v>
+      </c>
+      <c r="B698" t="n">
+        <v>30</v>
+      </c>
+      <c r="C698" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>171.4736842105263</v>
+      </c>
+      <c r="B699" t="n">
+        <v>30</v>
+      </c>
+      <c r="C699" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>171.7368421052632</v>
+      </c>
+      <c r="B700" t="n">
+        <v>30</v>
+      </c>
+      <c r="C700" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B701" t="n">
+        <v>30</v>
+      </c>
+      <c r="C701" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B702" t="n">
+        <v>30</v>
+      </c>
+      <c r="C702" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>172.2631578947368</v>
+      </c>
+      <c r="B703" t="n">
+        <v>30</v>
+      </c>
+      <c r="C703" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>172.5263157894737</v>
+      </c>
+      <c r="B704" t="n">
+        <v>30</v>
+      </c>
+      <c r="C704" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>172.7894736842105</v>
+      </c>
+      <c r="B705" t="n">
+        <v>30</v>
+      </c>
+      <c r="C705" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>173.0526315789474</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0</v>
+      </c>
+      <c r="C706" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>173.3157894736842</v>
+      </c>
+      <c r="B707" t="n">
+        <v>0</v>
+      </c>
+      <c r="C707" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>173.578947368421</v>
+      </c>
+      <c r="B708" t="n">
+        <v>0</v>
+      </c>
+      <c r="C708" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>173.8421052631579</v>
+      </c>
+      <c r="B709" t="n">
+        <v>0</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>174.1052631578947</v>
+      </c>
+      <c r="B710" t="n">
+        <v>0</v>
+      </c>
+      <c r="C710" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>174.3684210526316</v>
+      </c>
+      <c r="B711" t="n">
+        <v>0</v>
+      </c>
+      <c r="C711" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>174.6315789473684</v>
+      </c>
+      <c r="B712" t="n">
+        <v>0</v>
+      </c>
+      <c r="C712" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>174.8947368421053</v>
+      </c>
+      <c r="B713" t="n">
+        <v>0</v>
+      </c>
+      <c r="C713" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>175.1578947368421</v>
+      </c>
+      <c r="B714" t="n">
+        <v>0</v>
+      </c>
+      <c r="C714" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>175.421052631579</v>
+      </c>
+      <c r="B715" t="n">
+        <v>0</v>
+      </c>
+      <c r="C715" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>175.6842105263158</v>
+      </c>
+      <c r="B716" t="n">
+        <v>0</v>
+      </c>
+      <c r="C716" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>175.9473684210526</v>
+      </c>
+      <c r="B717" t="n">
+        <v>0</v>
+      </c>
+      <c r="C717" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>176.2105263157895</v>
+      </c>
+      <c r="B718" t="n">
+        <v>0</v>
+      </c>
+      <c r="C718" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>176.4736842105263</v>
+      </c>
+      <c r="B719" t="n">
+        <v>0</v>
+      </c>
+      <c r="C719" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>176.7368421052632</v>
+      </c>
+      <c r="B720" t="n">
+        <v>0</v>
+      </c>
+      <c r="C720" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B721" t="n">
+        <v>0</v>
+      </c>
+      <c r="C721" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B722" t="n">
+        <v>0</v>
+      </c>
+      <c r="C722" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>177.1578947368421</v>
+      </c>
+      <c r="B723" t="n">
+        <v>0</v>
+      </c>
+      <c r="C723" t="n">
+        <v>-28.42105263157895</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>177.3157894736842</v>
+      </c>
+      <c r="B724" t="n">
+        <v>0</v>
+      </c>
+      <c r="C724" t="n">
+        <v>-26.84210526315789</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>177.4736842105263</v>
+      </c>
+      <c r="B725" t="n">
+        <v>0</v>
+      </c>
+      <c r="C725" t="n">
+        <v>-25.26315789473684</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>177.6315789473684</v>
+      </c>
+      <c r="B726" t="n">
+        <v>0</v>
+      </c>
+      <c r="C726" t="n">
+        <v>-23.68421052631579</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>177.7894736842105</v>
+      </c>
+      <c r="B727" t="n">
+        <v>0</v>
+      </c>
+      <c r="C727" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>177.9473684210526</v>
+      </c>
+      <c r="B728" t="n">
+        <v>0</v>
+      </c>
+      <c r="C728" t="n">
+        <v>-20.52631578947368</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>178.1052631578947</v>
+      </c>
+      <c r="B729" t="n">
+        <v>0</v>
+      </c>
+      <c r="C729" t="n">
+        <v>-18.94736842105263</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>178.2631578947368</v>
+      </c>
+      <c r="B730" t="n">
+        <v>0</v>
+      </c>
+      <c r="C730" t="n">
+        <v>-17.36842105263158</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>178.421052631579</v>
+      </c>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+      <c r="C731" t="n">
+        <v>-15.78947368421053</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>178.578947368421</v>
+      </c>
+      <c r="B732" t="n">
+        <v>0</v>
+      </c>
+      <c r="C732" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>178.7368421052632</v>
+      </c>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733" t="n">
+        <v>-12.63157894736842</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>178.8947368421053</v>
+      </c>
+      <c r="B734" t="n">
+        <v>0</v>
+      </c>
+      <c r="C734" t="n">
+        <v>-11.05263157894737</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>179.0526315789474</v>
+      </c>
+      <c r="B735" t="n">
+        <v>0</v>
+      </c>
+      <c r="C735" t="n">
+        <v>-9.473684210526315</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>179.2105263157895</v>
+      </c>
+      <c r="B736" t="n">
+        <v>0</v>
+      </c>
+      <c r="C736" t="n">
+        <v>-7.894736842105264</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>179.3684210526316</v>
+      </c>
+      <c r="B737" t="n">
+        <v>0</v>
+      </c>
+      <c r="C737" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>179.5263157894737</v>
+      </c>
+      <c r="B738" t="n">
+        <v>0</v>
+      </c>
+      <c r="C738" t="n">
+        <v>-4.736842105263158</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>179.6842105263158</v>
+      </c>
+      <c r="B739" t="n">
+        <v>0</v>
+      </c>
+      <c r="C739" t="n">
+        <v>-3.157894736842106</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>179.8421052631579</v>
+      </c>
+      <c r="B740" t="n">
+        <v>0</v>
+      </c>
+      <c r="C740" t="n">
+        <v>-1.578947368421051</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+      <c r="C742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>180.1052631578947</v>
+      </c>
+      <c r="B743" t="n">
+        <v>0</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.052631578947368</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>180.2105263157895</v>
+      </c>
+      <c r="B744" t="n">
+        <v>0</v>
+      </c>
+      <c r="C744" t="n">
+        <v>2.105263157894737</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>180.3157894736842</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0</v>
+      </c>
+      <c r="C745" t="n">
+        <v>3.157894736842105</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>180.421052631579</v>
+      </c>
+      <c r="B746" t="n">
+        <v>0</v>
+      </c>
+      <c r="C746" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>180.5263157894737</v>
+      </c>
+      <c r="B747" t="n">
+        <v>0</v>
+      </c>
+      <c r="C747" t="n">
+        <v>5.263157894736842</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>180.6315789473684</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0</v>
+      </c>
+      <c r="C748" t="n">
+        <v>6.315789473684211</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>180.7368421052632</v>
+      </c>
+      <c r="B749" t="n">
+        <v>0</v>
+      </c>
+      <c r="C749" t="n">
+        <v>7.368421052631579</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>180.8421052631579</v>
+      </c>
+      <c r="B750" t="n">
+        <v>0</v>
+      </c>
+      <c r="C750" t="n">
+        <v>8.421052631578947</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>180.9473684210526</v>
+      </c>
+      <c r="B751" t="n">
+        <v>0</v>
+      </c>
+      <c r="C751" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>181.0526315789474</v>
+      </c>
+      <c r="B752" t="n">
+        <v>30</v>
+      </c>
+      <c r="C752" t="n">
+        <v>10.52631578947368</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>181.1578947368421</v>
+      </c>
+      <c r="B753" t="n">
+        <v>30</v>
+      </c>
+      <c r="C753" t="n">
+        <v>11.57894736842105</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>181.2631578947368</v>
+      </c>
+      <c r="B754" t="n">
+        <v>30</v>
+      </c>
+      <c r="C754" t="n">
+        <v>12.63157894736842</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>181.3684210526316</v>
+      </c>
+      <c r="B755" t="n">
+        <v>30</v>
+      </c>
+      <c r="C755" t="n">
+        <v>13.68421052631579</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>181.4736842105263</v>
+      </c>
+      <c r="B756" t="n">
+        <v>30</v>
+      </c>
+      <c r="C756" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>181.578947368421</v>
+      </c>
+      <c r="B757" t="n">
+        <v>30</v>
+      </c>
+      <c r="C757" t="n">
+        <v>15.78947368421053</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>181.6842105263158</v>
+      </c>
+      <c r="B758" t="n">
+        <v>30</v>
+      </c>
+      <c r="C758" t="n">
+        <v>16.84210526315789</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>181.7894736842105</v>
+      </c>
+      <c r="B759" t="n">
+        <v>30</v>
+      </c>
+      <c r="C759" t="n">
+        <v>17.89473684210526</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>181.8947368421053</v>
+      </c>
+      <c r="B760" t="n">
+        <v>30</v>
+      </c>
+      <c r="C760" t="n">
+        <v>18.94736842105263</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B761" t="n">
+        <v>30</v>
+      </c>
+      <c r="C761" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B762" t="n">
+        <v>30</v>
+      </c>
+      <c r="C762" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>182.2631578947368</v>
+      </c>
+      <c r="B763" t="n">
+        <v>30</v>
+      </c>
+      <c r="C763" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>182.5263157894737</v>
+      </c>
+      <c r="B764" t="n">
+        <v>30</v>
+      </c>
+      <c r="C764" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>182.7894736842105</v>
+      </c>
+      <c r="B765" t="n">
+        <v>30</v>
+      </c>
+      <c r="C765" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>183.0526315789474</v>
+      </c>
+      <c r="B766" t="n">
+        <v>0</v>
+      </c>
+      <c r="C766" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>183.3157894736842</v>
+      </c>
+      <c r="B767" t="n">
+        <v>0</v>
+      </c>
+      <c r="C767" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>183.578947368421</v>
+      </c>
+      <c r="B768" t="n">
+        <v>0</v>
+      </c>
+      <c r="C768" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>183.8421052631579</v>
+      </c>
+      <c r="B769" t="n">
+        <v>0</v>
+      </c>
+      <c r="C769" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>184.1052631578947</v>
+      </c>
+      <c r="B770" t="n">
+        <v>0</v>
+      </c>
+      <c r="C770" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>184.3684210526316</v>
+      </c>
+      <c r="B771" t="n">
+        <v>0</v>
+      </c>
+      <c r="C771" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>184.6315789473684</v>
+      </c>
+      <c r="B772" t="n">
+        <v>0</v>
+      </c>
+      <c r="C772" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>184.8947368421053</v>
+      </c>
+      <c r="B773" t="n">
+        <v>0</v>
+      </c>
+      <c r="C773" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>185.1578947368421</v>
+      </c>
+      <c r="B774" t="n">
+        <v>0</v>
+      </c>
+      <c r="C774" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>185.421052631579</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0</v>
+      </c>
+      <c r="C775" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>185.6842105263158</v>
+      </c>
+      <c r="B776" t="n">
+        <v>0</v>
+      </c>
+      <c r="C776" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>185.9473684210526</v>
+      </c>
+      <c r="B777" t="n">
+        <v>0</v>
+      </c>
+      <c r="C777" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>186.2105263157895</v>
+      </c>
+      <c r="B778" t="n">
+        <v>0</v>
+      </c>
+      <c r="C778" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>186.4736842105263</v>
+      </c>
+      <c r="B779" t="n">
+        <v>0</v>
+      </c>
+      <c r="C779" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>186.7368421052632</v>
+      </c>
+      <c r="B780" t="n">
+        <v>0</v>
+      </c>
+      <c r="C780" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B781" t="n">
+        <v>0</v>
+      </c>
+      <c r="C781" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B782" t="n">
+        <v>0</v>
+      </c>
+      <c r="C782" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>187.2631578947368</v>
+      </c>
+      <c r="B783" t="n">
+        <v>0</v>
+      </c>
+      <c r="C783" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>187.5263157894737</v>
+      </c>
+      <c r="B784" t="n">
+        <v>0</v>
+      </c>
+      <c r="C784" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>187.7894736842105</v>
+      </c>
+      <c r="B785" t="n">
+        <v>0</v>
+      </c>
+      <c r="C785" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>188.0526315789474</v>
+      </c>
+      <c r="B786" t="n">
+        <v>0</v>
+      </c>
+      <c r="C786" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>188.3157894736842</v>
+      </c>
+      <c r="B787" t="n">
+        <v>0</v>
+      </c>
+      <c r="C787" t="n">
+        <v>-16.84210526315789</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>188.578947368421</v>
+      </c>
+      <c r="B788" t="n">
+        <v>0</v>
+      </c>
+      <c r="C788" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>188.8421052631579</v>
+      </c>
+      <c r="B789" t="n">
+        <v>0</v>
+      </c>
+      <c r="C789" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>189.1052631578947</v>
+      </c>
+      <c r="B790" t="n">
+        <v>0</v>
+      </c>
+      <c r="C790" t="n">
+        <v>-8.94736842105263</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>189.3684210526316</v>
+      </c>
+      <c r="B791" t="n">
+        <v>0</v>
+      </c>
+      <c r="C791" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>189.6315789473684</v>
+      </c>
+      <c r="B792" t="n">
+        <v>0</v>
+      </c>
+      <c r="C792" t="n">
+        <v>-3.684210526315788</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>189.8947368421053</v>
+      </c>
+      <c r="B793" t="n">
+        <v>0</v>
+      </c>
+      <c r="C793" t="n">
+        <v>-1.052631578947366</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>190.1578947368421</v>
+      </c>
+      <c r="B794" t="n">
+        <v>0</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1.578947368421055</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>190.421052631579</v>
+      </c>
+      <c r="B795" t="n">
+        <v>0</v>
+      </c>
+      <c r="C795" t="n">
+        <v>4.21052631578948</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>190.6842105263158</v>
+      </c>
+      <c r="B796" t="n">
+        <v>0</v>
+      </c>
+      <c r="C796" t="n">
+        <v>6.842105263157897</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>190.9473684210526</v>
+      </c>
+      <c r="B797" t="n">
+        <v>0</v>
+      </c>
+      <c r="C797" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>191.2105263157895</v>
+      </c>
+      <c r="B798" t="n">
+        <v>30</v>
+      </c>
+      <c r="C798" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>191.4736842105263</v>
+      </c>
+      <c r="B799" t="n">
+        <v>30</v>
+      </c>
+      <c r="C799" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>191.7368421052632</v>
+      </c>
+      <c r="B800" t="n">
+        <v>30</v>
+      </c>
+      <c r="C800" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B801" t="n">
+        <v>30</v>
+      </c>
+      <c r="C801" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B802" t="n">
+        <v>30</v>
+      </c>
+      <c r="C802" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>192.2631578947368</v>
+      </c>
+      <c r="B803" t="n">
+        <v>30</v>
+      </c>
+      <c r="C803" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>192.5263157894737</v>
+      </c>
+      <c r="B804" t="n">
+        <v>30</v>
+      </c>
+      <c r="C804" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>192.7894736842105</v>
+      </c>
+      <c r="B805" t="n">
+        <v>30</v>
+      </c>
+      <c r="C805" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>193.0526315789474</v>
+      </c>
+      <c r="B806" t="n">
+        <v>0</v>
+      </c>
+      <c r="C806" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>193.3157894736842</v>
+      </c>
+      <c r="B807" t="n">
+        <v>0</v>
+      </c>
+      <c r="C807" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>193.578947368421</v>
+      </c>
+      <c r="B808" t="n">
+        <v>0</v>
+      </c>
+      <c r="C808" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>193.8421052631579</v>
+      </c>
+      <c r="B809" t="n">
+        <v>0</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>194.1052631578947</v>
+      </c>
+      <c r="B810" t="n">
+        <v>0</v>
+      </c>
+      <c r="C810" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>194.3684210526316</v>
+      </c>
+      <c r="B811" t="n">
+        <v>0</v>
+      </c>
+      <c r="C811" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>194.6315789473684</v>
+      </c>
+      <c r="B812" t="n">
+        <v>0</v>
+      </c>
+      <c r="C812" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>194.8947368421053</v>
+      </c>
+      <c r="B813" t="n">
+        <v>0</v>
+      </c>
+      <c r="C813" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>195.1578947368421</v>
+      </c>
+      <c r="B814" t="n">
+        <v>0</v>
+      </c>
+      <c r="C814" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>195.421052631579</v>
+      </c>
+      <c r="B815" t="n">
+        <v>0</v>
+      </c>
+      <c r="C815" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>195.6842105263158</v>
+      </c>
+      <c r="B816" t="n">
+        <v>0</v>
+      </c>
+      <c r="C816" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>195.9473684210526</v>
+      </c>
+      <c r="B817" t="n">
+        <v>0</v>
+      </c>
+      <c r="C817" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>196.2105263157895</v>
+      </c>
+      <c r="B818" t="n">
+        <v>0</v>
+      </c>
+      <c r="C818" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>196.4736842105263</v>
+      </c>
+      <c r="B819" t="n">
+        <v>0</v>
+      </c>
+      <c r="C819" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>196.7368421052632</v>
+      </c>
+      <c r="B820" t="n">
+        <v>0</v>
+      </c>
+      <c r="C820" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B821" t="n">
+        <v>0</v>
+      </c>
+      <c r="C821" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B822" t="n">
+        <v>0</v>
+      </c>
+      <c r="C822" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>197.2631578947368</v>
+      </c>
+      <c r="B823" t="n">
+        <v>0</v>
+      </c>
+      <c r="C823" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>197.5263157894737</v>
+      </c>
+      <c r="B824" t="n">
+        <v>0</v>
+      </c>
+      <c r="C824" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>197.7894736842105</v>
+      </c>
+      <c r="B825" t="n">
+        <v>0</v>
+      </c>
+      <c r="C825" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>198.0526315789474</v>
+      </c>
+      <c r="B826" t="n">
+        <v>0</v>
+      </c>
+      <c r="C826" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>198.3157894736842</v>
+      </c>
+      <c r="B827" t="n">
+        <v>0</v>
+      </c>
+      <c r="C827" t="n">
+        <v>-16.84210526315789</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>198.578947368421</v>
+      </c>
+      <c r="B828" t="n">
+        <v>0</v>
+      </c>
+      <c r="C828" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>198.8421052631579</v>
+      </c>
+      <c r="B829" t="n">
+        <v>0</v>
+      </c>
+      <c r="C829" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>199.1052631578947</v>
+      </c>
+      <c r="B830" t="n">
+        <v>0</v>
+      </c>
+      <c r="C830" t="n">
+        <v>-8.94736842105263</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>199.3684210526316</v>
+      </c>
+      <c r="B831" t="n">
+        <v>0</v>
+      </c>
+      <c r="C831" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>199.6315789473684</v>
+      </c>
+      <c r="B832" t="n">
+        <v>0</v>
+      </c>
+      <c r="C832" t="n">
+        <v>-3.684210526315788</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>199.8947368421053</v>
+      </c>
+      <c r="B833" t="n">
+        <v>0</v>
+      </c>
+      <c r="C833" t="n">
+        <v>-1.052631578947366</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>200.1578947368421</v>
+      </c>
+      <c r="B834" t="n">
+        <v>0</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1.578947368421055</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>200.421052631579</v>
+      </c>
+      <c r="B835" t="n">
+        <v>0</v>
+      </c>
+      <c r="C835" t="n">
+        <v>4.21052631578948</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>200.6842105263158</v>
+      </c>
+      <c r="B836" t="n">
+        <v>0</v>
+      </c>
+      <c r="C836" t="n">
+        <v>6.842105263157897</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>200.9473684210526</v>
+      </c>
+      <c r="B837" t="n">
+        <v>0</v>
+      </c>
+      <c r="C837" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>201.2105263157895</v>
+      </c>
+      <c r="B838" t="n">
+        <v>30</v>
+      </c>
+      <c r="C838" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>201.4736842105263</v>
+      </c>
+      <c r="B839" t="n">
+        <v>30</v>
+      </c>
+      <c r="C839" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>201.7368421052632</v>
+      </c>
+      <c r="B840" t="n">
+        <v>30</v>
+      </c>
+      <c r="C840" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B841" t="n">
+        <v>30</v>
+      </c>
+      <c r="C841" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B842" t="n">
+        <v>30</v>
+      </c>
+      <c r="C842" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>202.2631578947368</v>
+      </c>
+      <c r="B843" t="n">
+        <v>30</v>
+      </c>
+      <c r="C843" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>202.5263157894737</v>
+      </c>
+      <c r="B844" t="n">
+        <v>30</v>
+      </c>
+      <c r="C844" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>202.7894736842105</v>
+      </c>
+      <c r="B845" t="n">
+        <v>30</v>
+      </c>
+      <c r="C845" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>203.0526315789474</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0</v>
+      </c>
+      <c r="C846" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>203.3157894736842</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0</v>
+      </c>
+      <c r="C847" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>203.578947368421</v>
+      </c>
+      <c r="B848" t="n">
+        <v>0</v>
+      </c>
+      <c r="C848" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>203.8421052631579</v>
+      </c>
+      <c r="B849" t="n">
+        <v>0</v>
+      </c>
+      <c r="C849" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>204.1052631578947</v>
+      </c>
+      <c r="B850" t="n">
+        <v>0</v>
+      </c>
+      <c r="C850" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>204.3684210526316</v>
+      </c>
+      <c r="B851" t="n">
+        <v>0</v>
+      </c>
+      <c r="C851" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>204.6315789473684</v>
+      </c>
+      <c r="B852" t="n">
+        <v>0</v>
+      </c>
+      <c r="C852" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>204.8947368421053</v>
+      </c>
+      <c r="B853" t="n">
+        <v>0</v>
+      </c>
+      <c r="C853" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>205.1578947368421</v>
+      </c>
+      <c r="B854" t="n">
+        <v>0</v>
+      </c>
+      <c r="C854" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>205.421052631579</v>
+      </c>
+      <c r="B855" t="n">
+        <v>0</v>
+      </c>
+      <c r="C855" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>205.6842105263158</v>
+      </c>
+      <c r="B856" t="n">
+        <v>0</v>
+      </c>
+      <c r="C856" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>205.9473684210526</v>
+      </c>
+      <c r="B857" t="n">
+        <v>0</v>
+      </c>
+      <c r="C857" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>206.2105263157895</v>
+      </c>
+      <c r="B858" t="n">
+        <v>0</v>
+      </c>
+      <c r="C858" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>206.4736842105263</v>
+      </c>
+      <c r="B859" t="n">
+        <v>0</v>
+      </c>
+      <c r="C859" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>206.7368421052632</v>
+      </c>
+      <c r="B860" t="n">
+        <v>0</v>
+      </c>
+      <c r="C860" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B861" t="n">
+        <v>0</v>
+      </c>
+      <c r="C861" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B862" t="n">
+        <v>0</v>
+      </c>
+      <c r="C862" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>207.2631578947368</v>
+      </c>
+      <c r="B863" t="n">
+        <v>0</v>
+      </c>
+      <c r="C863" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>207.5263157894737</v>
+      </c>
+      <c r="B864" t="n">
+        <v>0</v>
+      </c>
+      <c r="C864" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>207.7894736842105</v>
+      </c>
+      <c r="B865" t="n">
+        <v>0</v>
+      </c>
+      <c r="C865" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>208.0526315789474</v>
+      </c>
+      <c r="B866" t="n">
+        <v>0</v>
+      </c>
+      <c r="C866" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>208.3157894736842</v>
+      </c>
+      <c r="B867" t="n">
+        <v>0</v>
+      </c>
+      <c r="C867" t="n">
+        <v>-16.84210526315789</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>208.578947368421</v>
+      </c>
+      <c r="B868" t="n">
+        <v>0</v>
+      </c>
+      <c r="C868" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>208.8421052631579</v>
+      </c>
+      <c r="B869" t="n">
+        <v>0</v>
+      </c>
+      <c r="C869" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>209.1052631578947</v>
+      </c>
+      <c r="B870" t="n">
+        <v>0</v>
+      </c>
+      <c r="C870" t="n">
+        <v>-8.94736842105263</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>209.3684210526316</v>
+      </c>
+      <c r="B871" t="n">
+        <v>0</v>
+      </c>
+      <c r="C871" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>209.6315789473684</v>
+      </c>
+      <c r="B872" t="n">
+        <v>0</v>
+      </c>
+      <c r="C872" t="n">
+        <v>-3.684210526315788</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>209.8947368421053</v>
+      </c>
+      <c r="B873" t="n">
+        <v>0</v>
+      </c>
+      <c r="C873" t="n">
+        <v>-1.052631578947366</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>210.1578947368421</v>
+      </c>
+      <c r="B874" t="n">
+        <v>0</v>
+      </c>
+      <c r="C874" t="n">
+        <v>1.578947368421055</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>210.421052631579</v>
+      </c>
+      <c r="B875" t="n">
+        <v>0</v>
+      </c>
+      <c r="C875" t="n">
+        <v>4.21052631578948</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>210.6842105263158</v>
+      </c>
+      <c r="B876" t="n">
+        <v>0</v>
+      </c>
+      <c r="C876" t="n">
+        <v>6.842105263157897</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>210.9473684210526</v>
+      </c>
+      <c r="B877" t="n">
+        <v>0</v>
+      </c>
+      <c r="C877" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>211.2105263157895</v>
+      </c>
+      <c r="B878" t="n">
+        <v>30</v>
+      </c>
+      <c r="C878" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>211.4736842105263</v>
+      </c>
+      <c r="B879" t="n">
+        <v>30</v>
+      </c>
+      <c r="C879" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>211.7368421052632</v>
+      </c>
+      <c r="B880" t="n">
+        <v>30</v>
+      </c>
+      <c r="C880" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B881" t="n">
+        <v>30</v>
+      </c>
+      <c r="C881" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B882" t="n">
+        <v>30</v>
+      </c>
+      <c r="C882" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>212.2631578947368</v>
+      </c>
+      <c r="B883" t="n">
+        <v>30</v>
+      </c>
+      <c r="C883" t="n">
+        <v>17.36842105263158</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>212.5263157894737</v>
+      </c>
+      <c r="B884" t="n">
+        <v>30</v>
+      </c>
+      <c r="C884" t="n">
+        <v>14.73684210526316</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>212.7894736842105</v>
+      </c>
+      <c r="B885" t="n">
+        <v>30</v>
+      </c>
+      <c r="C885" t="n">
+        <v>12.10526315789474</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>213.0526315789474</v>
+      </c>
+      <c r="B886" t="n">
+        <v>0</v>
+      </c>
+      <c r="C886" t="n">
+        <v>9.473684210526315</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>213.3157894736842</v>
+      </c>
+      <c r="B887" t="n">
+        <v>0</v>
+      </c>
+      <c r="C887" t="n">
+        <v>6.842105263157894</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>213.578947368421</v>
+      </c>
+      <c r="B888" t="n">
+        <v>0</v>
+      </c>
+      <c r="C888" t="n">
+        <v>4.210526315789473</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>213.8421052631579</v>
+      </c>
+      <c r="B889" t="n">
+        <v>0</v>
+      </c>
+      <c r="C889" t="n">
+        <v>1.578947368421051</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>214.1052631578947</v>
+      </c>
+      <c r="B890" t="n">
+        <v>0</v>
+      </c>
+      <c r="C890" t="n">
+        <v>-1.05263157894737</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>214.3684210526316</v>
+      </c>
+      <c r="B891" t="n">
+        <v>0</v>
+      </c>
+      <c r="C891" t="n">
+        <v>-3.684210526315791</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>214.6315789473684</v>
+      </c>
+      <c r="B892" t="n">
+        <v>0</v>
+      </c>
+      <c r="C892" t="n">
+        <v>-6.315789473684212</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>214.8947368421053</v>
+      </c>
+      <c r="B893" t="n">
+        <v>0</v>
+      </c>
+      <c r="C893" t="n">
+        <v>-8.947368421052634</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>215.1578947368421</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0</v>
+      </c>
+      <c r="C894" t="n">
+        <v>-11.57894736842105</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>215.421052631579</v>
+      </c>
+      <c r="B895" t="n">
+        <v>0</v>
+      </c>
+      <c r="C895" t="n">
+        <v>-14.21052631578948</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>215.6842105263158</v>
+      </c>
+      <c r="B896" t="n">
+        <v>0</v>
+      </c>
+      <c r="C896" t="n">
+        <v>-16.8421052631579</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>215.9473684210526</v>
+      </c>
+      <c r="B897" t="n">
+        <v>0</v>
+      </c>
+      <c r="C897" t="n">
+        <v>-19.47368421052632</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>216.2105263157895</v>
+      </c>
+      <c r="B898" t="n">
+        <v>0</v>
+      </c>
+      <c r="C898" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>216.4736842105263</v>
+      </c>
+      <c r="B899" t="n">
+        <v>0</v>
+      </c>
+      <c r="C899" t="n">
+        <v>-24.73684210526316</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>216.7368421052632</v>
+      </c>
+      <c r="B900" t="n">
+        <v>0</v>
+      </c>
+      <c r="C900" t="n">
+        <v>-27.36842105263158</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B901" t="n">
+        <v>0</v>
+      </c>
+      <c r="C901" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B902" t="n">
+        <v>0</v>
+      </c>
+      <c r="C902" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>217.1578947368421</v>
+      </c>
+      <c r="B903" t="n">
+        <v>0</v>
+      </c>
+      <c r="C903" t="n">
+        <v>-28.42105263157895</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>217.3157894736842</v>
+      </c>
+      <c r="B904" t="n">
+        <v>0</v>
+      </c>
+      <c r="C904" t="n">
+        <v>-26.84210526315789</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>217.4736842105263</v>
+      </c>
+      <c r="B905" t="n">
+        <v>0</v>
+      </c>
+      <c r="C905" t="n">
+        <v>-25.26315789473684</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>217.6315789473684</v>
+      </c>
+      <c r="B906" t="n">
+        <v>0</v>
+      </c>
+      <c r="C906" t="n">
+        <v>-23.68421052631579</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>217.7894736842105</v>
+      </c>
+      <c r="B907" t="n">
+        <v>0</v>
+      </c>
+      <c r="C907" t="n">
+        <v>-22.10526315789474</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>217.9473684210526</v>
+      </c>
+      <c r="B908" t="n">
+        <v>0</v>
+      </c>
+      <c r="C908" t="n">
+        <v>-20.52631578947368</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>218.1052631578947</v>
+      </c>
+      <c r="B909" t="n">
+        <v>0</v>
+      </c>
+      <c r="C909" t="n">
+        <v>-18.94736842105263</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>218.2631578947368</v>
+      </c>
+      <c r="B910" t="n">
+        <v>0</v>
+      </c>
+      <c r="C910" t="n">
+        <v>-17.36842105263158</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>218.421052631579</v>
+      </c>
+      <c r="B911" t="n">
+        <v>0</v>
+      </c>
+      <c r="C911" t="n">
+        <v>-15.78947368421053</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>218.578947368421</v>
+      </c>
+      <c r="B912" t="n">
+        <v>0</v>
+      </c>
+      <c r="C912" t="n">
+        <v>-14.21052631578947</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>218.7368421052632</v>
+      </c>
+      <c r="B913" t="n">
+        <v>0</v>
+      </c>
+      <c r="C913" t="n">
+        <v>-12.63157894736842</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>218.8947368421053</v>
+      </c>
+      <c r="B914" t="n">
+        <v>0</v>
+      </c>
+      <c r="C914" t="n">
+        <v>-11.05263157894737</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>219.0526315789474</v>
+      </c>
+      <c r="B915" t="n">
+        <v>0</v>
+      </c>
+      <c r="C915" t="n">
+        <v>-9.473684210526315</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>219.2105263157895</v>
+      </c>
+      <c r="B916" t="n">
+        <v>0</v>
+      </c>
+      <c r="C916" t="n">
+        <v>-7.894736842105264</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>219.3684210526316</v>
+      </c>
+      <c r="B917" t="n">
+        <v>0</v>
+      </c>
+      <c r="C917" t="n">
+        <v>-6.315789473684209</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>219.5263157894737</v>
+      </c>
+      <c r="B918" t="n">
+        <v>0</v>
+      </c>
+      <c r="C918" t="n">
+        <v>-4.736842105263158</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>219.6842105263158</v>
+      </c>
+      <c r="B919" t="n">
+        <v>0</v>
+      </c>
+      <c r="C919" t="n">
+        <v>-3.157894736842106</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>219.8421052631579</v>
+      </c>
+      <c r="B920" t="n">
+        <v>0</v>
+      </c>
+      <c r="C920" t="n">
+        <v>-1.578947368421051</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B921" t="n">
+        <v>0</v>
+      </c>
+      <c r="C921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B922" t="n">
+        <v>0</v>
+      </c>
+      <c r="C922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B923" t="n">
+        <v>20</v>
+      </c>
+      <c r="C923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>223.3030303030303</v>
+      </c>
+      <c r="B924" t="n">
+        <v>0</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1.265924535737493</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>223.6060606060606</v>
+      </c>
+      <c r="B925" t="n">
+        <v>0</v>
+      </c>
+      <c r="C925" t="n">
+        <v>2.511479871810792</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>223.9090909090909</v>
+      </c>
+      <c r="B926" t="n">
+        <v>0</v>
+      </c>
+      <c r="C926" t="n">
+        <v>3.716624556603276</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>224.2121212121212</v>
+      </c>
+      <c r="B927" t="n">
+        <v>0</v>
+      </c>
+      <c r="C927" t="n">
+        <v>4.861967361004687</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>224.5151515151515</v>
+      </c>
+      <c r="B928" t="n">
+        <v>0</v>
+      </c>
+      <c r="C928" t="n">
+        <v>5.929079290546404</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>224.8181818181818</v>
+      </c>
+      <c r="B929" t="n">
+        <v>0</v>
+      </c>
+      <c r="C929" t="n">
+        <v>6.90079011482112</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>225.1212121212121</v>
+      </c>
+      <c r="B930" t="n">
+        <v>0</v>
+      </c>
+      <c r="C930" t="n">
+        <v>7.761464642917568</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>225.4242424242424</v>
+      </c>
+      <c r="B931" t="n">
+        <v>0</v>
+      </c>
+      <c r="C931" t="n">
+        <v>8.497254299495143</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>225.7272727272727</v>
+      </c>
+      <c r="B932" t="n">
+        <v>0</v>
+      </c>
+      <c r="C932" t="n">
+        <v>9.096319953545184</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>226.030303030303</v>
+      </c>
+      <c r="B933" t="n">
+        <v>0</v>
+      </c>
+      <c r="C933" t="n">
+        <v>9.549022414440739</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>226.3333333333333</v>
+      </c>
+      <c r="B934" t="n">
+        <v>0</v>
+      </c>
+      <c r="C934" t="n">
+        <v>9.84807753012208</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>226.6363636363636</v>
+      </c>
+      <c r="B935" t="n">
+        <v>0</v>
+      </c>
+      <c r="C935" t="n">
+        <v>9.98867339183008</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>226.9393939393939</v>
+      </c>
+      <c r="B936" t="n">
+        <v>0</v>
+      </c>
+      <c r="C936" t="n">
+        <v>9.968547759519424</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>227.2424242424242</v>
+      </c>
+      <c r="B937" t="n">
+        <v>0</v>
+      </c>
+      <c r="C937" t="n">
+        <v>9.788024462147787</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>227.5454545454546</v>
+      </c>
+      <c r="B938" t="n">
+        <v>0</v>
+      </c>
+      <c r="C938" t="n">
+        <v>9.450008187146684</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>227.8484848484848</v>
+      </c>
+      <c r="B939" t="n">
+        <v>0</v>
+      </c>
+      <c r="C939" t="n">
+        <v>8.959937742913359</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>228.1515151515152</v>
+      </c>
+      <c r="B940" t="n">
+        <v>0</v>
+      </c>
+      <c r="C940" t="n">
+        <v>8.325698546347715</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>228.4545454545454</v>
+      </c>
+      <c r="B941" t="n">
+        <v>0</v>
+      </c>
+      <c r="C941" t="n">
+        <v>7.557495743542582</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>228.7575757575758</v>
+      </c>
+      <c r="B942" t="n">
+        <v>0</v>
+      </c>
+      <c r="C942" t="n">
+        <v>6.667690005162916</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>229.0606060606061</v>
+      </c>
+      <c r="B943" t="n">
+        <v>0</v>
+      </c>
+      <c r="C943" t="n">
+        <v>5.670598638627709</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>229.3636363636364</v>
+      </c>
+      <c r="B944" t="n">
+        <v>0</v>
+      </c>
+      <c r="C944" t="n">
+        <v>4.582265217274101</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>229.6666666666667</v>
+      </c>
+      <c r="B945" t="n">
+        <v>0</v>
+      </c>
+      <c r="C945" t="n">
+        <v>3.420201433256689</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>229.969696969697</v>
+      </c>
+      <c r="B946" t="n">
+        <v>0</v>
+      </c>
+      <c r="C946" t="n">
+        <v>2.203105327865408</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>230.2727272727273</v>
+      </c>
+      <c r="B947" t="n">
+        <v>20</v>
+      </c>
+      <c r="C947" t="n">
+        <v>0.9505604330418244</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>230.5757575757576</v>
+      </c>
+      <c r="B948" t="n">
+        <v>20</v>
+      </c>
+      <c r="C948" t="n">
+        <v>-0.3172793349806741</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>230.8787878787879</v>
+      </c>
+      <c r="B949" t="n">
+        <v>20</v>
+      </c>
+      <c r="C949" t="n">
+        <v>-1.580013959733501</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>231.1818181818182</v>
+      </c>
+      <c r="B950" t="n">
+        <v>20</v>
+      </c>
+      <c r="C950" t="n">
+        <v>-2.817325568414294</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>231.4848484848485</v>
+      </c>
+      <c r="B951" t="n">
+        <v>20</v>
+      </c>
+      <c r="C951" t="n">
+        <v>-4.009305354066134</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>231.7878787878788</v>
+      </c>
+      <c r="B952" t="n">
+        <v>20</v>
+      </c>
+      <c r="C952" t="n">
+        <v>-5.136773915734064</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>232.0909090909091</v>
+      </c>
+      <c r="B953" t="n">
+        <v>20</v>
+      </c>
+      <c r="C953" t="n">
+        <v>-6.181589862206053</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>232.3939393939394</v>
+      </c>
+      <c r="B954" t="n">
+        <v>20</v>
+      </c>
+      <c r="C954" t="n">
+        <v>-7.126941713788632</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>232.6969696969697</v>
+      </c>
+      <c r="B955" t="n">
+        <v>20</v>
+      </c>
+      <c r="C955" t="n">
+        <v>-7.957618405308321</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B956" t="n">
+        <v>20</v>
+      </c>
+      <c r="C956" t="n">
+        <v>-8.660254037844386</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>233.3030303030303</v>
+      </c>
+      <c r="B957" t="n">
+        <v>20</v>
+      </c>
+      <c r="C957" t="n">
+        <v>-9.223542941045814</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>233.6060606060606</v>
+      </c>
+      <c r="B958" t="n">
+        <v>20</v>
+      </c>
+      <c r="C958" t="n">
+        <v>-9.638421585599419</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>233.9090909090909</v>
+      </c>
+      <c r="B959" t="n">
+        <v>20</v>
+      </c>
+      <c r="C959" t="n">
+        <v>-9.898214418809326</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>234.2121212121212</v>
+      </c>
+      <c r="B960" t="n">
+        <v>20</v>
+      </c>
+      <c r="C960" t="n">
+        <v>-9.99874127673875</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>234.5151515151515</v>
+      </c>
+      <c r="B961" t="n">
+        <v>20</v>
+      </c>
+      <c r="C961" t="n">
+        <v>-9.93838464461254</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>234.8181818181818</v>
+      </c>
+      <c r="B962" t="n">
+        <v>20</v>
+      </c>
+      <c r="C962" t="n">
+        <v>-9.718115683235416</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>235.1212121212121</v>
+      </c>
+      <c r="B963" t="n">
+        <v>20</v>
+      </c>
+      <c r="C963" t="n">
+        <v>-9.341478602651067</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>235.4242424242424</v>
+      </c>
+      <c r="B964" t="n">
+        <v>20</v>
+      </c>
+      <c r="C964" t="n">
+        <v>-8.81453363447582</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>235.7272727272727</v>
+      </c>
+      <c r="B965" t="n">
+        <v>20</v>
+      </c>
+      <c r="C965" t="n">
+        <v>-8.145759520503354</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>236.030303030303</v>
+      </c>
+      <c r="B966" t="n">
+        <v>20</v>
+      </c>
+      <c r="C966" t="n">
+        <v>-7.345917086575331</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="B967" t="n">
+        <v>20</v>
+      </c>
+      <c r="C967" t="n">
+        <v>-6.427876096865396</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>236.6363636363636</v>
+      </c>
+      <c r="B968" t="n">
+        <v>20</v>
+      </c>
+      <c r="C968" t="n">
+        <v>-5.406408174555974</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>236.9393939393939</v>
+      </c>
+      <c r="B969" t="n">
+        <v>20</v>
+      </c>
+      <c r="C969" t="n">
+        <v>-4.297949120891719</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>237.2424242424242</v>
+      </c>
+      <c r="B970" t="n">
+        <v>20</v>
+      </c>
+      <c r="C970" t="n">
+        <v>-3.120334456984879</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>237.5454545454546</v>
+      </c>
+      <c r="B971" t="n">
+        <v>20</v>
+      </c>
+      <c r="C971" t="n">
+        <v>-1.892512443604097</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>237.8484848484848</v>
+      </c>
+      <c r="B972" t="n">
+        <v>20</v>
+      </c>
+      <c r="C972" t="n">
+        <v>-0.6342391965656452</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>238.1515151515152</v>
+      </c>
+      <c r="B973" t="n">
+        <v>20</v>
+      </c>
+      <c r="C973" t="n">
+        <v>0.6342391965656403</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>238.4545454545454</v>
+      </c>
+      <c r="B974" t="n">
+        <v>0</v>
+      </c>
+      <c r="C974" t="n">
+        <v>1.892512443604101</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>238.7575757575758</v>
+      </c>
+      <c r="B975" t="n">
+        <v>0</v>
+      </c>
+      <c r="C975" t="n">
+        <v>3.120334456984875</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>239.0606060606061</v>
+      </c>
+      <c r="B976" t="n">
+        <v>0</v>
+      </c>
+      <c r="C976" t="n">
+        <v>4.297949120891723</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>239.3636363636364</v>
+      </c>
+      <c r="B977" t="n">
+        <v>0</v>
+      </c>
+      <c r="C977" t="n">
+        <v>5.406408174555971</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>239.6666666666667</v>
+      </c>
+      <c r="B978" t="n">
+        <v>0</v>
+      </c>
+      <c r="C978" t="n">
+        <v>6.427876096865399</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>239.969696969697</v>
+      </c>
+      <c r="B979" t="n">
+        <v>0</v>
+      </c>
+      <c r="C979" t="n">
+        <v>7.345917086575328</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>240.2727272727273</v>
+      </c>
+      <c r="B980" t="n">
+        <v>0</v>
+      </c>
+      <c r="C980" t="n">
+        <v>8.145759520503356</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>240.5757575757576</v>
+      </c>
+      <c r="B981" t="n">
+        <v>0</v>
+      </c>
+      <c r="C981" t="n">
+        <v>8.81453363447582</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>240.8787878787879</v>
+      </c>
+      <c r="B982" t="n">
+        <v>0</v>
+      </c>
+      <c r="C982" t="n">
+        <v>9.341478602651067</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>241.1818181818182</v>
+      </c>
+      <c r="B983" t="n">
+        <v>0</v>
+      </c>
+      <c r="C983" t="n">
+        <v>9.718115683235418</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>241.4848484848485</v>
+      </c>
+      <c r="B984" t="n">
+        <v>0</v>
+      </c>
+      <c r="C984" t="n">
+        <v>9.93838464461254</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>241.7878787878788</v>
+      </c>
+      <c r="B985" t="n">
+        <v>0</v>
+      </c>
+      <c r="C985" t="n">
+        <v>9.99874127673875</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>242.0909090909091</v>
+      </c>
+      <c r="B986" t="n">
+        <v>0</v>
+      </c>
+      <c r="C986" t="n">
+        <v>9.898214418809328</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>242.3939393939394</v>
+      </c>
+      <c r="B987" t="n">
+        <v>0</v>
+      </c>
+      <c r="C987" t="n">
+        <v>9.638421585599421</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>242.6969696969697</v>
+      </c>
+      <c r="B988" t="n">
+        <v>0</v>
+      </c>
+      <c r="C988" t="n">
+        <v>9.223542941045809</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B989" t="n">
+        <v>0</v>
+      </c>
+      <c r="C989" t="n">
+        <v>8.660254037844391</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>243.3030303030303</v>
+      </c>
+      <c r="B990" t="n">
+        <v>0</v>
+      </c>
+      <c r="C990" t="n">
+        <v>7.957618405308319</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>243.6060606060606</v>
+      </c>
+      <c r="B991" t="n">
+        <v>0</v>
+      </c>
+      <c r="C991" t="n">
+        <v>7.12694171378863</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>243.9090909090909</v>
+      </c>
+      <c r="B992" t="n">
+        <v>0</v>
+      </c>
+      <c r="C992" t="n">
+        <v>6.181589862206057</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>244.2121212121212</v>
+      </c>
+      <c r="B993" t="n">
+        <v>0</v>
+      </c>
+      <c r="C993" t="n">
+        <v>5.136773915734071</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>244.5151515151515</v>
+      </c>
+      <c r="B994" t="n">
+        <v>0</v>
+      </c>
+      <c r="C994" t="n">
+        <v>4.009305354066134</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>244.8181818181818</v>
+      </c>
+      <c r="B995" t="n">
+        <v>0</v>
+      </c>
+      <c r="C995" t="n">
+        <v>2.817325568414299</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>245.1212121212121</v>
+      </c>
+      <c r="B996" t="n">
+        <v>0</v>
+      </c>
+      <c r="C996" t="n">
+        <v>1.580013959733506</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>245.4242424242424</v>
+      </c>
+      <c r="B997" t="n">
+        <v>20</v>
+      </c>
+      <c r="C997" t="n">
+        <v>0.3172793349806879</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>245.7272727272727</v>
+      </c>
+      <c r="B998" t="n">
+        <v>20</v>
+      </c>
+      <c r="C998" t="n">
+        <v>-0.9505604330418106</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>246.030303030303</v>
+      </c>
+      <c r="B999" t="n">
+        <v>20</v>
+      </c>
+      <c r="C999" t="n">
+        <v>-2.203105327865403</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>246.3333333333333</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>-3.42020143325668</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>246.6363636363636</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>-4.582265217274109</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>246.9393939393939</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>-5.670598638627707</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>247.2424242424242</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>-6.667690005162913</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>247.5454545454545</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>-7.557495743542589</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>247.8484848484848</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>-8.325698546347716</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>248.1515151515152</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>-8.959937742913359</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>248.4545454545455</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>-9.45000818714669</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>248.7575757575758</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>-9.788024462147789</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>249.0606060606061</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>-9.968547759519424</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>249.3636363636364</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>-9.98867339183008</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>-9.848077530122081</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>249.969696969697</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>-9.549022414440742</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>250.2727272727273</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>-9.096319953545184</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>250.5757575757576</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>-8.497254299495145</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>250.8787878787879</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>-7.761464642917573</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>251.1818181818182</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>-6.900790114821116</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>251.4848484848485</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>-5.929079290546419</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>251.7878787878788</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>-4.86196736100469</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>252.0909090909091</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>-3.716624556603267</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>252.3939393939394</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>-2.511479871810805</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>252.6969696969697</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>-1.265924535737493</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>-2.266215559059192e-14</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>-2.266215559059192e-14</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>259.3030303030303</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>1.265924535737493</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>259.6060606060606</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>2.511479871810792</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>259.9090909090909</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>3.716624556603276</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>260.2121212121212</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>4.861967361004687</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>260.5151515151515</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>5.929079290546404</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>260.8181818181818</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>6.90079011482112</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>261.1212121212121</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>7.761464642917568</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>261.4242424242424</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>8.497254299495143</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>261.7272727272727</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>9.096319953545184</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>262.030303030303</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>9.549022414440739</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>262.3333333333333</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>9.84807753012208</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>262.6363636363636</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>9.98867339183008</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>262.9393939393939</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>9.968547759519424</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>263.2424242424242</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>9.788024462147787</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>263.5454545454545</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>9.450008187146684</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>263.8484848484848</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>8.959937742913359</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>264.1515151515152</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>8.325698546347715</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>264.4545454545455</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>7.557495743542582</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>264.7575757575758</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>6.667690005162916</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>265.0606060606061</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>5.670598638627709</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>265.3636363636364</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>4.582265217274101</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>265.6666666666667</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>3.420201433256689</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>265.969696969697</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>2.203105327865408</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>266.2727272727273</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>0.9505604330418244</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>266.5757575757576</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>-0.3172793349806741</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>266.8787878787879</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>-1.580013959733501</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>267.1818181818182</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>-2.817325568414294</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>267.4848484848485</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>-4.009305354066134</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>267.7878787878788</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>-5.136773915734064</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>268.0909090909091</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>-6.181589862206053</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>268.3939393939394</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>-7.126941713788632</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>268.6969696969697</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>-7.957618405308321</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>-8.660254037844386</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>269.3030303030303</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>-9.223542941045814</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>269.6060606060606</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>-9.638421585599419</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>269.9090909090909</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>-9.898214418809326</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>270.2121212121212</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>-9.99874127673875</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>270.5151515151515</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>-9.93838464461254</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>270.8181818181818</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>-9.718115683235416</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>271.1212121212121</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>-9.341478602651067</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>271.4242424242424</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>-8.81453363447582</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>271.7272727272727</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>-8.145759520503354</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>272.030303030303</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>-7.345917086575331</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>272.3333333333333</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>-6.427876096865396</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>272.6363636363636</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>-5.406408174555974</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>272.9393939393939</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>-4.297949120891719</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>273.2424242424242</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>-3.120334456984879</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>273.5454545454546</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>-1.892512443604097</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>273.8484848484848</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>-0.6342391965656452</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>274.1515151515152</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>0.6342391965656403</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>274.4545454545454</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>1.892512443604101</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>274.7575757575758</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>3.120334456984875</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>275.0606060606061</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>4.297949120891723</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>275.3636363636364</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>5.406408174555971</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>275.6666666666667</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>6.427876096865399</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>275.969696969697</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>7.345917086575328</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>276.2727272727273</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>8.145759520503356</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>276.5757575757576</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>8.81453363447582</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>276.8787878787879</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>9.341478602651067</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>277.1818181818182</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>9.718115683235418</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>277.4848484848485</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>9.93838464461254</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>277.7878787878788</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>9.99874127673875</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>278.0909090909091</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>9.898214418809328</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>278.3939393939394</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>9.638421585599421</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>278.6969696969697</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>9.223542941045809</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>8.660254037844391</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>279.3030303030303</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>7.957618405308319</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>279.6060606060606</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>7.12694171378863</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>279.9090909090909</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>6.181589862206057</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>280.2121212121212</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>5.136773915734071</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>280.5151515151515</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>4.009305354066134</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>280.8181818181818</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>2.817325568414299</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>281.1212121212121</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>1.580013959733506</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>281.4242424242424</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>0.3172793349806879</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>281.7272727272727</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>-0.9505604330418106</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>282.030303030303</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>-2.203105327865403</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>282.3333333333333</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>-3.42020143325668</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>282.6363636363636</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>-4.582265217274109</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>282.9393939393939</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>-5.670598638627707</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>283.2424242424242</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>-6.667690005162913</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>283.5454545454546</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>-7.557495743542589</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>283.8484848484848</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>-8.325698546347716</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>284.1515151515152</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>-8.959937742913359</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>284.4545454545455</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>-9.45000818714669</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>284.7575757575758</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>-9.788024462147789</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>285.0606060606061</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>-9.968547759519424</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>285.3636363636364</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>-9.98867339183008</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>285.6666666666667</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>-9.848077530122081</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>285.969696969697</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>-9.549022414440742</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>286.2727272727273</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>-9.096319953545184</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>286.5757575757576</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>-8.497254299495145</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>286.8787878787879</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>-7.761464642917573</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>287.1818181818182</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>-6.900790114821116</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>287.4848484848485</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>-5.929079290546419</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>287.7878787878788</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>-4.86196736100469</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>288.0909090909091</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>-3.716624556603267</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>288.3939393939394</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>-2.511479871810805</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>288.6969696969697</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>-1.265924535737493</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>-2.266215559059192e-14</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>-2.266215559059192e-14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6622,7 +12826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6641,6 +12845,16 @@
           <t>Typing</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Light switch_0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Typing_0</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6654,6 +12868,12 @@
       <c r="C2" t="n">
         <v>60</v>
       </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E2" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6667,6 +12887,12 @@
       <c r="C3" t="n">
         <v>80</v>
       </c>
+      <c r="D3" t="n">
+        <v>140</v>
+      </c>
+      <c r="E3" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6678,6 +12904,12 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6931,9 +13163,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26B0418B-6E5D-428A-8B2D-CC7C0C098579}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4772F0-AFCD-4418-984B-928FBE44268A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DED69751-A50D-48BD-97A4-8DCE1FCD2C22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F68237-B269-4A93-9F45-A75FC600397F}"/>
 </file>
--- a/Generating_Flight_Mission_Cycle/output.xlsx
+++ b/Generating_Flight_Mission_Cycle/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1125"/>
+  <dimension ref="A1:C661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,7 @@
         <v>1.052631578947368</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>10.52631578947368</v>
@@ -577,7 +577,7 @@
         <v>1.157894736842105</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>11.57894736842105</v>
@@ -588,7 +588,7 @@
         <v>1.263157894736842</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>12.63157894736842</v>
@@ -599,7 +599,7 @@
         <v>1.368421052631579</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>13.68421052631579</v>
@@ -610,7 +610,7 @@
         <v>1.473684210526316</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>14.73684210526316</v>
@@ -698,7 +698,7 @@
         <v>2.526315789473684</v>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>14.73684210526316</v>
@@ -709,7 +709,7 @@
         <v>2.789473684210527</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>12.10526315789474</v>
@@ -1072,7 +1072,7 @@
         <v>11.21052631578947</v>
       </c>
       <c r="B58" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>12.10526315789474</v>
@@ -1083,7 +1083,7 @@
         <v>11.47368421052632</v>
       </c>
       <c r="B59" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>14.73684210526316</v>
@@ -1138,7 +1138,7 @@
         <v>12.52631578947368</v>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>14.73684210526316</v>
@@ -1149,7 +1149,7 @@
         <v>12.78947368421053</v>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
         <v>12.10526315789474</v>
@@ -1512,7 +1512,7 @@
         <v>21.21052631578947</v>
       </c>
       <c r="B98" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>12.10526315789474</v>
@@ -1523,7 +1523,7 @@
         <v>21.47368421052632</v>
       </c>
       <c r="B99" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>14.73684210526316</v>
@@ -1578,7 +1578,7 @@
         <v>22.52631578947368</v>
       </c>
       <c r="B104" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>14.73684210526316</v>
@@ -1589,7 +1589,7 @@
         <v>22.78947368421053</v>
       </c>
       <c r="B105" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>12.10526315789474</v>
@@ -1952,7 +1952,7 @@
         <v>31.21052631578947</v>
       </c>
       <c r="B138" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>12.10526315789474</v>
@@ -1963,7 +1963,7 @@
         <v>31.47368421052632</v>
       </c>
       <c r="B139" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
         <v>14.73684210526316</v>
@@ -2018,7 +2018,7 @@
         <v>32.52631578947368</v>
       </c>
       <c r="B144" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>14.73684210526316</v>
@@ -2029,7 +2029,7 @@
         <v>32.78947368421053</v>
       </c>
       <c r="B145" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
         <v>12.10526315789474</v>
@@ -2546,7 +2546,7 @@
         <v>41.05263157894737</v>
       </c>
       <c r="B192" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>10.52631578947368</v>
@@ -2557,7 +2557,7 @@
         <v>41.1578947368421</v>
       </c>
       <c r="B193" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>11.57894736842105</v>
@@ -2568,7 +2568,7 @@
         <v>41.26315789473684</v>
       </c>
       <c r="B194" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
         <v>12.63157894736842</v>
@@ -2579,7 +2579,7 @@
         <v>41.36842105263158</v>
       </c>
       <c r="B195" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>13.68421052631579</v>
@@ -2590,7 +2590,7 @@
         <v>41.47368421052632</v>
       </c>
       <c r="B196" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
         <v>14.73684210526316</v>
@@ -2678,7 +2678,7 @@
         <v>42.52631578947368</v>
       </c>
       <c r="B204" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>14.73684210526316</v>
@@ -2689,7 +2689,7 @@
         <v>42.78947368421053</v>
       </c>
       <c r="B205" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>12.10526315789474</v>
@@ -3052,7 +3052,7 @@
         <v>51.21052631578947</v>
       </c>
       <c r="B238" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>12.10526315789474</v>
@@ -3063,7 +3063,7 @@
         <v>51.47368421052632</v>
       </c>
       <c r="B239" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>14.73684210526316</v>
@@ -3118,7 +3118,7 @@
         <v>52.52631578947368</v>
       </c>
       <c r="B244" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>14.73684210526316</v>
@@ -3129,7 +3129,7 @@
         <v>52.78947368421053</v>
       </c>
       <c r="B245" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
         <v>12.10526315789474</v>
@@ -3492,7 +3492,7 @@
         <v>61.21052631578947</v>
       </c>
       <c r="B278" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
         <v>12.10526315789474</v>
@@ -3503,7 +3503,7 @@
         <v>61.47368421052632</v>
       </c>
       <c r="B279" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>14.73684210526316</v>
@@ -3558,7 +3558,7 @@
         <v>62.52631578947368</v>
       </c>
       <c r="B284" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>14.73684210526316</v>
@@ -3569,7 +3569,7 @@
         <v>62.78947368421053</v>
       </c>
       <c r="B285" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
         <v>12.10526315789474</v>
@@ -3932,7 +3932,7 @@
         <v>71.21052631578948</v>
       </c>
       <c r="B318" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
         <v>12.10526315789474</v>
@@ -3943,7 +3943,7 @@
         <v>71.47368421052632</v>
       </c>
       <c r="B319" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
         <v>14.73684210526316</v>
@@ -3998,7 +3998,7 @@
         <v>72.52631578947368</v>
       </c>
       <c r="B324" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
         <v>14.73684210526316</v>
@@ -4009,7 +4009,7 @@
         <v>72.78947368421052</v>
       </c>
       <c r="B325" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
         <v>12.10526315789474</v>
@@ -4427,7 +4427,7 @@
         <v>80.3030303030303</v>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C363" t="n">
         <v>1.265924535737493</v>
@@ -4438,7 +4438,7 @@
         <v>80.60606060606061</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C364" t="n">
         <v>2.511479871810792</v>
@@ -4669,7 +4669,7 @@
         <v>86.96969696969697</v>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C385" t="n">
         <v>2.203105327865408</v>
@@ -4977,7 +4977,7 @@
         <v>95.45454545454545</v>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C413" t="n">
         <v>1.892512443604101</v>
@@ -5208,7 +5208,7 @@
         <v>101.8181818181818</v>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C434" t="n">
         <v>2.817325568414299</v>
@@ -5219,7 +5219,7 @@
         <v>102.1212121212121</v>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C435" t="n">
         <v>1.580013959733506</v>
@@ -5527,7 +5527,7 @@
         <v>110.3030303030303</v>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C463" t="n">
         <v>1.265924535737493</v>
@@ -5538,7 +5538,7 @@
         <v>110.6060606060606</v>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C464" t="n">
         <v>2.511479871810792</v>
@@ -5769,7 +5769,7 @@
         <v>116.969696969697</v>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C485" t="n">
         <v>2.203105327865408</v>
@@ -6077,7 +6077,7 @@
         <v>125.4545454545455</v>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C513" t="n">
         <v>1.892512443604101</v>
@@ -6308,7 +6308,7 @@
         <v>131.8181818181818</v>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C534" t="n">
         <v>2.817325568414299</v>
@@ -6319,7 +6319,7 @@
         <v>132.1212121212121</v>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C535" t="n">
         <v>1.580013959733506</v>
@@ -6616,7 +6616,7 @@
         <v>140</v>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C562" t="n">
         <v>0</v>
@@ -6624,6194 +6624,1090 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>140.1052631578947</v>
+        <v>140.3030303030303</v>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C563" t="n">
-        <v>1.052631578947368</v>
+        <v>1.265924535737493</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>140.2105263157895</v>
+        <v>140.6060606060606</v>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C564" t="n">
-        <v>2.105263157894737</v>
+        <v>2.511479871810792</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>140.3157894736842</v>
+        <v>140.9090909090909</v>
       </c>
       <c r="B565" t="n">
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>3.157894736842105</v>
+        <v>3.716624556603276</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>140.421052631579</v>
+        <v>141.2121212121212</v>
       </c>
       <c r="B566" t="n">
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>4.210526315789473</v>
+        <v>4.861967361004687</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>140.5263157894737</v>
+        <v>141.5151515151515</v>
       </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>5.263157894736842</v>
+        <v>5.929079290546404</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>140.6315789473684</v>
+        <v>141.8181818181818</v>
       </c>
       <c r="B568" t="n">
         <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>6.315789473684211</v>
+        <v>6.90079011482112</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>140.7368421052632</v>
+        <v>142.1212121212121</v>
       </c>
       <c r="B569" t="n">
         <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>7.368421052631579</v>
+        <v>7.761464642917568</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>140.8421052631579</v>
+        <v>142.4242424242424</v>
       </c>
       <c r="B570" t="n">
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>8.421052631578947</v>
+        <v>8.497254299495143</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>140.9473684210526</v>
+        <v>142.7272727272727</v>
       </c>
       <c r="B571" t="n">
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>9.473684210526315</v>
+        <v>9.096319953545184</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>141.0526315789474</v>
+        <v>143.030303030303</v>
       </c>
       <c r="B572" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>10.52631578947368</v>
+        <v>9.549022414440739</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>141.1578947368421</v>
+        <v>143.3333333333333</v>
       </c>
       <c r="B573" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>11.57894736842105</v>
+        <v>9.84807753012208</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>141.2631578947368</v>
+        <v>143.6363636363636</v>
       </c>
       <c r="B574" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>12.63157894736842</v>
+        <v>9.98867339183008</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>141.3684210526316</v>
+        <v>143.9393939393939</v>
       </c>
       <c r="B575" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>13.68421052631579</v>
+        <v>9.968547759519424</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>141.4736842105263</v>
+        <v>144.2424242424242</v>
       </c>
       <c r="B576" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>14.73684210526316</v>
+        <v>9.788024462147787</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>141.578947368421</v>
+        <v>144.5454545454546</v>
       </c>
       <c r="B577" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>15.78947368421053</v>
+        <v>9.450008187146684</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>141.6842105263158</v>
+        <v>144.8484848484848</v>
       </c>
       <c r="B578" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>16.84210526315789</v>
+        <v>8.959937742913359</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>141.7894736842105</v>
+        <v>145.1515151515152</v>
       </c>
       <c r="B579" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>17.89473684210526</v>
+        <v>8.325698546347715</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>141.8947368421053</v>
+        <v>145.4545454545454</v>
       </c>
       <c r="B580" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>18.94736842105263</v>
+        <v>7.557495743542582</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>142</v>
+        <v>145.7575757575758</v>
       </c>
       <c r="B581" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>20</v>
+        <v>6.667690005162916</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>142</v>
+        <v>146.0606060606061</v>
       </c>
       <c r="B582" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>20</v>
+        <v>5.670598638627709</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>142.2631578947368</v>
+        <v>146.3636363636364</v>
       </c>
       <c r="B583" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>17.36842105263158</v>
+        <v>4.582265217274101</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>142.5263157894737</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="B584" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>14.73684210526316</v>
+        <v>3.420201433256689</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>142.7894736842105</v>
+        <v>146.969696969697</v>
       </c>
       <c r="B585" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C585" t="n">
-        <v>12.10526315789474</v>
+        <v>2.203105327865408</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>143.0526315789474</v>
+        <v>147.2727272727273</v>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C586" t="n">
-        <v>9.473684210526315</v>
+        <v>0.9505604330418244</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>143.3157894736842</v>
+        <v>147.5757575757576</v>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C587" t="n">
-        <v>6.842105263157894</v>
+        <v>-0.3172793349806741</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>143.578947368421</v>
+        <v>147.8787878787879</v>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C588" t="n">
-        <v>4.210526315789473</v>
+        <v>-1.580013959733501</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>143.8421052631579</v>
+        <v>148.1818181818182</v>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C589" t="n">
-        <v>1.578947368421051</v>
+        <v>-2.817325568414294</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>144.1052631578947</v>
+        <v>148.4848484848485</v>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C590" t="n">
-        <v>-1.05263157894737</v>
+        <v>-4.009305354066134</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>144.3684210526316</v>
+        <v>148.7878787878788</v>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C591" t="n">
-        <v>-3.684210526315791</v>
+        <v>-5.136773915734064</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>144.6315789473684</v>
+        <v>149.0909090909091</v>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C592" t="n">
-        <v>-6.315789473684212</v>
+        <v>-6.181589862206053</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>144.8947368421053</v>
+        <v>149.3939393939394</v>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C593" t="n">
-        <v>-8.947368421052634</v>
+        <v>-7.126941713788632</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>145.1578947368421</v>
+        <v>149.6969696969697</v>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C594" t="n">
-        <v>-11.57894736842105</v>
+        <v>-7.957618405308321</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>145.421052631579</v>
+        <v>150</v>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C595" t="n">
-        <v>-14.21052631578948</v>
+        <v>-8.660254037844386</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>145.6842105263158</v>
+        <v>150.3030303030303</v>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C596" t="n">
-        <v>-16.8421052631579</v>
+        <v>-9.223542941045814</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>145.9473684210526</v>
+        <v>150.6060606060606</v>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C597" t="n">
-        <v>-19.47368421052632</v>
+        <v>-9.638421585599419</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>146.2105263157895</v>
+        <v>150.9090909090909</v>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C598" t="n">
-        <v>-22.10526315789474</v>
+        <v>-9.898214418809326</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>146.4736842105263</v>
+        <v>151.2121212121212</v>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C599" t="n">
-        <v>-24.73684210526316</v>
+        <v>-9.99874127673875</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>146.7368421052632</v>
+        <v>151.5151515151515</v>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C600" t="n">
-        <v>-27.36842105263158</v>
+        <v>-9.93838464461254</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>147</v>
+        <v>151.8181818181818</v>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C601" t="n">
-        <v>-30</v>
+        <v>-9.718115683235416</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>147</v>
+        <v>152.1212121212121</v>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C602" t="n">
-        <v>-30</v>
+        <v>-9.341478602651067</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>147.2631578947368</v>
+        <v>152.4242424242424</v>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C603" t="n">
-        <v>-27.36842105263158</v>
+        <v>-8.81453363447582</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>147.5263157894737</v>
+        <v>152.7272727272727</v>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C604" t="n">
-        <v>-24.73684210526316</v>
+        <v>-8.145759520503354</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>147.7894736842105</v>
+        <v>153.030303030303</v>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C605" t="n">
-        <v>-22.10526315789474</v>
+        <v>-7.345917086575331</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>148.0526315789474</v>
+        <v>153.3333333333333</v>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C606" t="n">
-        <v>-19.47368421052632</v>
+        <v>-6.427876096865396</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>148.3157894736842</v>
+        <v>153.6363636363636</v>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C607" t="n">
-        <v>-16.84210526315789</v>
+        <v>-5.406408174555974</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>148.578947368421</v>
+        <v>153.9393939393939</v>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C608" t="n">
-        <v>-14.21052631578947</v>
+        <v>-4.297949120891719</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>148.8421052631579</v>
+        <v>154.2424242424242</v>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C609" t="n">
-        <v>-11.57894736842105</v>
+        <v>-3.120334456984879</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>149.1052631578947</v>
+        <v>154.5454545454546</v>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C610" t="n">
-        <v>-8.94736842105263</v>
+        <v>-1.892512443604097</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>149.3684210526316</v>
+        <v>154.8484848484848</v>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C611" t="n">
-        <v>-6.315789473684209</v>
+        <v>-0.6342391965656452</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>149.6315789473684</v>
+        <v>155.1515151515152</v>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C612" t="n">
-        <v>-3.684210526315788</v>
+        <v>0.6342391965656403</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>149.8947368421053</v>
+        <v>155.4545454545454</v>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C613" t="n">
-        <v>-1.052631578947366</v>
+        <v>1.892512443604101</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>150.1578947368421</v>
+        <v>155.7575757575758</v>
       </c>
       <c r="B614" t="n">
         <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1.578947368421055</v>
+        <v>3.120334456984875</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>150.421052631579</v>
+        <v>156.0606060606061</v>
       </c>
       <c r="B615" t="n">
         <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>4.21052631578948</v>
+        <v>4.297949120891723</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>150.6842105263158</v>
+        <v>156.3636363636364</v>
       </c>
       <c r="B616" t="n">
         <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>6.842105263157897</v>
+        <v>5.406408174555971</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>150.9473684210526</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="B617" t="n">
         <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>9.473684210526315</v>
+        <v>6.427876096865399</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>151.2105263157895</v>
+        <v>156.969696969697</v>
       </c>
       <c r="B618" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>12.10526315789474</v>
+        <v>7.345917086575328</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>151.4736842105263</v>
+        <v>157.2727272727273</v>
       </c>
       <c r="B619" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>14.73684210526316</v>
+        <v>8.145759520503356</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>151.7368421052632</v>
+        <v>157.5757575757576</v>
       </c>
       <c r="B620" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>17.36842105263158</v>
+        <v>8.81453363447582</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>152</v>
+        <v>157.8787878787879</v>
       </c>
       <c r="B621" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>20</v>
+        <v>9.341478602651067</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>152</v>
+        <v>158.1818181818182</v>
       </c>
       <c r="B622" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>20</v>
+        <v>9.718115683235418</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>152.2631578947368</v>
+        <v>158.4848484848485</v>
       </c>
       <c r="B623" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>17.36842105263158</v>
+        <v>9.93838464461254</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>152.5263157894737</v>
+        <v>158.7878787878788</v>
       </c>
       <c r="B624" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>14.73684210526316</v>
+        <v>9.99874127673875</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>152.7894736842105</v>
+        <v>159.0909090909091</v>
       </c>
       <c r="B625" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>12.10526315789474</v>
+        <v>9.898214418809328</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>153.0526315789474</v>
+        <v>159.3939393939394</v>
       </c>
       <c r="B626" t="n">
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>9.473684210526315</v>
+        <v>9.638421585599421</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>153.3157894736842</v>
+        <v>159.6969696969697</v>
       </c>
       <c r="B627" t="n">
         <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>6.842105263157894</v>
+        <v>9.223542941045809</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>153.578947368421</v>
+        <v>160</v>
       </c>
       <c r="B628" t="n">
         <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>4.210526315789473</v>
+        <v>8.660254037844391</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>153.8421052631579</v>
+        <v>160.3030303030303</v>
       </c>
       <c r="B629" t="n">
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>1.578947368421051</v>
+        <v>7.957618405308319</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>154.1052631578947</v>
+        <v>160.6060606060606</v>
       </c>
       <c r="B630" t="n">
         <v>0</v>
       </c>
       <c r="C630" t="n">
-        <v>-1.05263157894737</v>
+        <v>7.12694171378863</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>154.3684210526316</v>
+        <v>160.9090909090909</v>
       </c>
       <c r="B631" t="n">
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>-3.684210526315791</v>
+        <v>6.181589862206057</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>154.6315789473684</v>
+        <v>161.2121212121212</v>
       </c>
       <c r="B632" t="n">
         <v>0</v>
       </c>
       <c r="C632" t="n">
-        <v>-6.315789473684212</v>
+        <v>5.136773915734071</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>154.8947368421053</v>
+        <v>161.5151515151515</v>
       </c>
       <c r="B633" t="n">
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>-8.947368421052634</v>
+        <v>4.009305354066134</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>155.1578947368421</v>
+        <v>161.8181818181818</v>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C634" t="n">
-        <v>-11.57894736842105</v>
+        <v>2.817325568414299</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>155.421052631579</v>
+        <v>162.1212121212121</v>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C635" t="n">
-        <v>-14.21052631578948</v>
+        <v>1.580013959733506</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>155.6842105263158</v>
+        <v>162.4242424242424</v>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C636" t="n">
-        <v>-16.8421052631579</v>
+        <v>0.3172793349806879</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>155.9473684210526</v>
+        <v>162.7272727272727</v>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C637" t="n">
-        <v>-19.47368421052632</v>
+        <v>-0.9505604330418106</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>156.2105263157895</v>
+        <v>163.030303030303</v>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C638" t="n">
-        <v>-22.10526315789474</v>
+        <v>-2.203105327865403</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>156.4736842105263</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C639" t="n">
-        <v>-24.73684210526316</v>
+        <v>-3.42020143325668</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>156.7368421052632</v>
+        <v>163.6363636363636</v>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C640" t="n">
-        <v>-27.36842105263158</v>
+        <v>-4.582265217274109</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>157</v>
+        <v>163.9393939393939</v>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C641" t="n">
-        <v>-30</v>
+        <v>-5.670598638627707</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>157</v>
+        <v>164.2424242424242</v>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C642" t="n">
-        <v>-30</v>
+        <v>-6.667690005162913</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>157.2631578947368</v>
+        <v>164.5454545454546</v>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C643" t="n">
-        <v>-27.36842105263158</v>
+        <v>-7.557495743542589</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>157.5263157894737</v>
+        <v>164.8484848484848</v>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C644" t="n">
-        <v>-24.73684210526316</v>
+        <v>-8.325698546347716</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>157.7894736842105</v>
+        <v>165.1515151515152</v>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C645" t="n">
-        <v>-22.10526315789474</v>
+        <v>-8.959937742913359</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>158.0526315789474</v>
+        <v>165.4545454545455</v>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C646" t="n">
-        <v>-19.47368421052632</v>
+        <v>-9.45000818714669</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>158.3157894736842</v>
+        <v>165.7575757575758</v>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C647" t="n">
-        <v>-16.84210526315789</v>
+        <v>-9.788024462147789</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>158.578947368421</v>
+        <v>166.0606060606061</v>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C648" t="n">
-        <v>-14.21052631578947</v>
+        <v>-9.968547759519424</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>158.8421052631579</v>
+        <v>166.3636363636364</v>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C649" t="n">
-        <v>-11.57894736842105</v>
+        <v>-9.98867339183008</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>159.1052631578947</v>
+        <v>166.6666666666667</v>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C650" t="n">
-        <v>-8.94736842105263</v>
+        <v>-9.848077530122081</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>159.3684210526316</v>
+        <v>166.969696969697</v>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C651" t="n">
-        <v>-6.315789473684209</v>
+        <v>-9.549022414440742</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>159.6315789473684</v>
+        <v>167.2727272727273</v>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C652" t="n">
-        <v>-3.684210526315788</v>
+        <v>-9.096319953545184</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>159.8947368421053</v>
+        <v>167.5757575757576</v>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C653" t="n">
-        <v>-1.052631578947366</v>
+        <v>-8.497254299495145</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>160.1578947368421</v>
+        <v>167.8787878787879</v>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C654" t="n">
-        <v>1.578947368421055</v>
+        <v>-7.761464642917573</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>160.421052631579</v>
+        <v>168.1818181818182</v>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C655" t="n">
-        <v>4.21052631578948</v>
+        <v>-6.900790114821116</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>160.6842105263158</v>
+        <v>168.4848484848485</v>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C656" t="n">
-        <v>6.842105263157897</v>
+        <v>-5.929079290546419</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>160.9473684210526</v>
+        <v>168.7878787878788</v>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C657" t="n">
-        <v>9.473684210526315</v>
+        <v>-4.86196736100469</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>161.2105263157895</v>
+        <v>169.0909090909091</v>
       </c>
       <c r="B658" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C658" t="n">
-        <v>12.10526315789474</v>
+        <v>-3.716624556603267</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>161.4736842105263</v>
+        <v>169.3939393939394</v>
       </c>
       <c r="B659" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C659" t="n">
-        <v>14.73684210526316</v>
+        <v>-2.511479871810805</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>161.7368421052632</v>
+        <v>169.6969696969697</v>
       </c>
       <c r="B660" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C660" t="n">
-        <v>17.36842105263158</v>
+        <v>-1.265924535737493</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B661" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C661" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B662" t="n">
-        <v>30</v>
-      </c>
-      <c r="C662" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>162.2631578947368</v>
-      </c>
-      <c r="B663" t="n">
-        <v>30</v>
-      </c>
-      <c r="C663" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>162.5263157894737</v>
-      </c>
-      <c r="B664" t="n">
-        <v>30</v>
-      </c>
-      <c r="C664" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>162.7894736842105</v>
-      </c>
-      <c r="B665" t="n">
-        <v>30</v>
-      </c>
-      <c r="C665" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>163.0526315789474</v>
-      </c>
-      <c r="B666" t="n">
-        <v>0</v>
-      </c>
-      <c r="C666" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>163.3157894736842</v>
-      </c>
-      <c r="B667" t="n">
-        <v>0</v>
-      </c>
-      <c r="C667" t="n">
-        <v>6.842105263157894</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>163.578947368421</v>
-      </c>
-      <c r="B668" t="n">
-        <v>0</v>
-      </c>
-      <c r="C668" t="n">
-        <v>4.210526315789473</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>163.8421052631579</v>
-      </c>
-      <c r="B669" t="n">
-        <v>0</v>
-      </c>
-      <c r="C669" t="n">
-        <v>1.578947368421051</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>164.1052631578947</v>
-      </c>
-      <c r="B670" t="n">
-        <v>0</v>
-      </c>
-      <c r="C670" t="n">
-        <v>-1.05263157894737</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>164.3684210526316</v>
-      </c>
-      <c r="B671" t="n">
-        <v>0</v>
-      </c>
-      <c r="C671" t="n">
-        <v>-3.684210526315791</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>164.6315789473684</v>
-      </c>
-      <c r="B672" t="n">
-        <v>0</v>
-      </c>
-      <c r="C672" t="n">
-        <v>-6.315789473684212</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>164.8947368421053</v>
-      </c>
-      <c r="B673" t="n">
-        <v>0</v>
-      </c>
-      <c r="C673" t="n">
-        <v>-8.947368421052634</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>165.1578947368421</v>
-      </c>
-      <c r="B674" t="n">
-        <v>0</v>
-      </c>
-      <c r="C674" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>165.421052631579</v>
-      </c>
-      <c r="B675" t="n">
-        <v>0</v>
-      </c>
-      <c r="C675" t="n">
-        <v>-14.21052631578948</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>165.6842105263158</v>
-      </c>
-      <c r="B676" t="n">
-        <v>0</v>
-      </c>
-      <c r="C676" t="n">
-        <v>-16.8421052631579</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>165.9473684210526</v>
-      </c>
-      <c r="B677" t="n">
-        <v>0</v>
-      </c>
-      <c r="C677" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>166.2105263157895</v>
-      </c>
-      <c r="B678" t="n">
-        <v>0</v>
-      </c>
-      <c r="C678" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>166.4736842105263</v>
-      </c>
-      <c r="B679" t="n">
-        <v>0</v>
-      </c>
-      <c r="C679" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>166.7368421052632</v>
-      </c>
-      <c r="B680" t="n">
-        <v>0</v>
-      </c>
-      <c r="C680" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B681" t="n">
-        <v>0</v>
-      </c>
-      <c r="C681" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B682" t="n">
-        <v>0</v>
-      </c>
-      <c r="C682" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>167.2631578947368</v>
-      </c>
-      <c r="B683" t="n">
-        <v>0</v>
-      </c>
-      <c r="C683" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>167.5263157894737</v>
-      </c>
-      <c r="B684" t="n">
-        <v>0</v>
-      </c>
-      <c r="C684" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>167.7894736842105</v>
-      </c>
-      <c r="B685" t="n">
-        <v>0</v>
-      </c>
-      <c r="C685" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>168.0526315789474</v>
-      </c>
-      <c r="B686" t="n">
-        <v>0</v>
-      </c>
-      <c r="C686" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>168.3157894736842</v>
-      </c>
-      <c r="B687" t="n">
-        <v>0</v>
-      </c>
-      <c r="C687" t="n">
-        <v>-16.84210526315789</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>168.578947368421</v>
-      </c>
-      <c r="B688" t="n">
-        <v>0</v>
-      </c>
-      <c r="C688" t="n">
-        <v>-14.21052631578947</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>168.8421052631579</v>
-      </c>
-      <c r="B689" t="n">
-        <v>0</v>
-      </c>
-      <c r="C689" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>169.1052631578947</v>
-      </c>
-      <c r="B690" t="n">
-        <v>0</v>
-      </c>
-      <c r="C690" t="n">
-        <v>-8.94736842105263</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>169.3684210526316</v>
-      </c>
-      <c r="B691" t="n">
-        <v>0</v>
-      </c>
-      <c r="C691" t="n">
-        <v>-6.315789473684209</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>169.6315789473684</v>
-      </c>
-      <c r="B692" t="n">
-        <v>0</v>
-      </c>
-      <c r="C692" t="n">
-        <v>-3.684210526315788</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>169.8947368421053</v>
-      </c>
-      <c r="B693" t="n">
-        <v>0</v>
-      </c>
-      <c r="C693" t="n">
-        <v>-1.052631578947366</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>170.1578947368421</v>
-      </c>
-      <c r="B694" t="n">
-        <v>0</v>
-      </c>
-      <c r="C694" t="n">
-        <v>1.578947368421055</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>170.421052631579</v>
-      </c>
-      <c r="B695" t="n">
-        <v>0</v>
-      </c>
-      <c r="C695" t="n">
-        <v>4.21052631578948</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>170.6842105263158</v>
-      </c>
-      <c r="B696" t="n">
-        <v>0</v>
-      </c>
-      <c r="C696" t="n">
-        <v>6.842105263157897</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>170.9473684210526</v>
-      </c>
-      <c r="B697" t="n">
-        <v>0</v>
-      </c>
-      <c r="C697" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>171.2105263157895</v>
-      </c>
-      <c r="B698" t="n">
-        <v>30</v>
-      </c>
-      <c r="C698" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>171.4736842105263</v>
-      </c>
-      <c r="B699" t="n">
-        <v>30</v>
-      </c>
-      <c r="C699" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>171.7368421052632</v>
-      </c>
-      <c r="B700" t="n">
-        <v>30</v>
-      </c>
-      <c r="C700" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B701" t="n">
-        <v>30</v>
-      </c>
-      <c r="C701" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B702" t="n">
-        <v>30</v>
-      </c>
-      <c r="C702" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>172.2631578947368</v>
-      </c>
-      <c r="B703" t="n">
-        <v>30</v>
-      </c>
-      <c r="C703" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>172.5263157894737</v>
-      </c>
-      <c r="B704" t="n">
-        <v>30</v>
-      </c>
-      <c r="C704" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>172.7894736842105</v>
-      </c>
-      <c r="B705" t="n">
-        <v>30</v>
-      </c>
-      <c r="C705" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>173.0526315789474</v>
-      </c>
-      <c r="B706" t="n">
-        <v>0</v>
-      </c>
-      <c r="C706" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>173.3157894736842</v>
-      </c>
-      <c r="B707" t="n">
-        <v>0</v>
-      </c>
-      <c r="C707" t="n">
-        <v>6.842105263157894</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>173.578947368421</v>
-      </c>
-      <c r="B708" t="n">
-        <v>0</v>
-      </c>
-      <c r="C708" t="n">
-        <v>4.210526315789473</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>173.8421052631579</v>
-      </c>
-      <c r="B709" t="n">
-        <v>0</v>
-      </c>
-      <c r="C709" t="n">
-        <v>1.578947368421051</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>174.1052631578947</v>
-      </c>
-      <c r="B710" t="n">
-        <v>0</v>
-      </c>
-      <c r="C710" t="n">
-        <v>-1.05263157894737</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>174.3684210526316</v>
-      </c>
-      <c r="B711" t="n">
-        <v>0</v>
-      </c>
-      <c r="C711" t="n">
-        <v>-3.684210526315791</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>174.6315789473684</v>
-      </c>
-      <c r="B712" t="n">
-        <v>0</v>
-      </c>
-      <c r="C712" t="n">
-        <v>-6.315789473684212</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>174.8947368421053</v>
-      </c>
-      <c r="B713" t="n">
-        <v>0</v>
-      </c>
-      <c r="C713" t="n">
-        <v>-8.947368421052634</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>175.1578947368421</v>
-      </c>
-      <c r="B714" t="n">
-        <v>0</v>
-      </c>
-      <c r="C714" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>175.421052631579</v>
-      </c>
-      <c r="B715" t="n">
-        <v>0</v>
-      </c>
-      <c r="C715" t="n">
-        <v>-14.21052631578948</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>175.6842105263158</v>
-      </c>
-      <c r="B716" t="n">
-        <v>0</v>
-      </c>
-      <c r="C716" t="n">
-        <v>-16.8421052631579</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>175.9473684210526</v>
-      </c>
-      <c r="B717" t="n">
-        <v>0</v>
-      </c>
-      <c r="C717" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>176.2105263157895</v>
-      </c>
-      <c r="B718" t="n">
-        <v>0</v>
-      </c>
-      <c r="C718" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>176.4736842105263</v>
-      </c>
-      <c r="B719" t="n">
-        <v>0</v>
-      </c>
-      <c r="C719" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>176.7368421052632</v>
-      </c>
-      <c r="B720" t="n">
-        <v>0</v>
-      </c>
-      <c r="C720" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B721" t="n">
-        <v>0</v>
-      </c>
-      <c r="C721" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B722" t="n">
-        <v>0</v>
-      </c>
-      <c r="C722" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>177.1578947368421</v>
-      </c>
-      <c r="B723" t="n">
-        <v>0</v>
-      </c>
-      <c r="C723" t="n">
-        <v>-28.42105263157895</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>177.3157894736842</v>
-      </c>
-      <c r="B724" t="n">
-        <v>0</v>
-      </c>
-      <c r="C724" t="n">
-        <v>-26.84210526315789</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>177.4736842105263</v>
-      </c>
-      <c r="B725" t="n">
-        <v>0</v>
-      </c>
-      <c r="C725" t="n">
-        <v>-25.26315789473684</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>177.6315789473684</v>
-      </c>
-      <c r="B726" t="n">
-        <v>0</v>
-      </c>
-      <c r="C726" t="n">
-        <v>-23.68421052631579</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>177.7894736842105</v>
-      </c>
-      <c r="B727" t="n">
-        <v>0</v>
-      </c>
-      <c r="C727" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>177.9473684210526</v>
-      </c>
-      <c r="B728" t="n">
-        <v>0</v>
-      </c>
-      <c r="C728" t="n">
-        <v>-20.52631578947368</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>178.1052631578947</v>
-      </c>
-      <c r="B729" t="n">
-        <v>0</v>
-      </c>
-      <c r="C729" t="n">
-        <v>-18.94736842105263</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>178.2631578947368</v>
-      </c>
-      <c r="B730" t="n">
-        <v>0</v>
-      </c>
-      <c r="C730" t="n">
-        <v>-17.36842105263158</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>178.421052631579</v>
-      </c>
-      <c r="B731" t="n">
-        <v>0</v>
-      </c>
-      <c r="C731" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>178.578947368421</v>
-      </c>
-      <c r="B732" t="n">
-        <v>0</v>
-      </c>
-      <c r="C732" t="n">
-        <v>-14.21052631578947</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>178.7368421052632</v>
-      </c>
-      <c r="B733" t="n">
-        <v>0</v>
-      </c>
-      <c r="C733" t="n">
-        <v>-12.63157894736842</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>178.8947368421053</v>
-      </c>
-      <c r="B734" t="n">
-        <v>0</v>
-      </c>
-      <c r="C734" t="n">
-        <v>-11.05263157894737</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>179.0526315789474</v>
-      </c>
-      <c r="B735" t="n">
-        <v>0</v>
-      </c>
-      <c r="C735" t="n">
-        <v>-9.473684210526315</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>179.2105263157895</v>
-      </c>
-      <c r="B736" t="n">
-        <v>0</v>
-      </c>
-      <c r="C736" t="n">
-        <v>-7.894736842105264</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>179.3684210526316</v>
-      </c>
-      <c r="B737" t="n">
-        <v>0</v>
-      </c>
-      <c r="C737" t="n">
-        <v>-6.315789473684209</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>179.5263157894737</v>
-      </c>
-      <c r="B738" t="n">
-        <v>0</v>
-      </c>
-      <c r="C738" t="n">
-        <v>-4.736842105263158</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>179.6842105263158</v>
-      </c>
-      <c r="B739" t="n">
-        <v>0</v>
-      </c>
-      <c r="C739" t="n">
-        <v>-3.157894736842106</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>179.8421052631579</v>
-      </c>
-      <c r="B740" t="n">
-        <v>0</v>
-      </c>
-      <c r="C740" t="n">
-        <v>-1.578947368421051</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B741" t="n">
-        <v>0</v>
-      </c>
-      <c r="C741" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B742" t="n">
-        <v>0</v>
-      </c>
-      <c r="C742" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>180.1052631578947</v>
-      </c>
-      <c r="B743" t="n">
-        <v>0</v>
-      </c>
-      <c r="C743" t="n">
-        <v>1.052631578947368</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>180.2105263157895</v>
-      </c>
-      <c r="B744" t="n">
-        <v>0</v>
-      </c>
-      <c r="C744" t="n">
-        <v>2.105263157894737</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>180.3157894736842</v>
-      </c>
-      <c r="B745" t="n">
-        <v>0</v>
-      </c>
-      <c r="C745" t="n">
-        <v>3.157894736842105</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>180.421052631579</v>
-      </c>
-      <c r="B746" t="n">
-        <v>0</v>
-      </c>
-      <c r="C746" t="n">
-        <v>4.210526315789473</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>180.5263157894737</v>
-      </c>
-      <c r="B747" t="n">
-        <v>0</v>
-      </c>
-      <c r="C747" t="n">
-        <v>5.263157894736842</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>180.6315789473684</v>
-      </c>
-      <c r="B748" t="n">
-        <v>0</v>
-      </c>
-      <c r="C748" t="n">
-        <v>6.315789473684211</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>180.7368421052632</v>
-      </c>
-      <c r="B749" t="n">
-        <v>0</v>
-      </c>
-      <c r="C749" t="n">
-        <v>7.368421052631579</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>180.8421052631579</v>
-      </c>
-      <c r="B750" t="n">
-        <v>0</v>
-      </c>
-      <c r="C750" t="n">
-        <v>8.421052631578947</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>180.9473684210526</v>
-      </c>
-      <c r="B751" t="n">
-        <v>0</v>
-      </c>
-      <c r="C751" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>181.0526315789474</v>
-      </c>
-      <c r="B752" t="n">
-        <v>30</v>
-      </c>
-      <c r="C752" t="n">
-        <v>10.52631578947368</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>181.1578947368421</v>
-      </c>
-      <c r="B753" t="n">
-        <v>30</v>
-      </c>
-      <c r="C753" t="n">
-        <v>11.57894736842105</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>181.2631578947368</v>
-      </c>
-      <c r="B754" t="n">
-        <v>30</v>
-      </c>
-      <c r="C754" t="n">
-        <v>12.63157894736842</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>181.3684210526316</v>
-      </c>
-      <c r="B755" t="n">
-        <v>30</v>
-      </c>
-      <c r="C755" t="n">
-        <v>13.68421052631579</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>181.4736842105263</v>
-      </c>
-      <c r="B756" t="n">
-        <v>30</v>
-      </c>
-      <c r="C756" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>181.578947368421</v>
-      </c>
-      <c r="B757" t="n">
-        <v>30</v>
-      </c>
-      <c r="C757" t="n">
-        <v>15.78947368421053</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>181.6842105263158</v>
-      </c>
-      <c r="B758" t="n">
-        <v>30</v>
-      </c>
-      <c r="C758" t="n">
-        <v>16.84210526315789</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>181.7894736842105</v>
-      </c>
-      <c r="B759" t="n">
-        <v>30</v>
-      </c>
-      <c r="C759" t="n">
-        <v>17.89473684210526</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>181.8947368421053</v>
-      </c>
-      <c r="B760" t="n">
-        <v>30</v>
-      </c>
-      <c r="C760" t="n">
-        <v>18.94736842105263</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B761" t="n">
-        <v>30</v>
-      </c>
-      <c r="C761" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B762" t="n">
-        <v>30</v>
-      </c>
-      <c r="C762" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>182.2631578947368</v>
-      </c>
-      <c r="B763" t="n">
-        <v>30</v>
-      </c>
-      <c r="C763" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>182.5263157894737</v>
-      </c>
-      <c r="B764" t="n">
-        <v>30</v>
-      </c>
-      <c r="C764" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>182.7894736842105</v>
-      </c>
-      <c r="B765" t="n">
-        <v>30</v>
-      </c>
-      <c r="C765" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>183.0526315789474</v>
-      </c>
-      <c r="B766" t="n">
-        <v>0</v>
-      </c>
-      <c r="C766" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>183.3157894736842</v>
-      </c>
-      <c r="B767" t="n">
-        <v>0</v>
-      </c>
-      <c r="C767" t="n">
-        <v>6.842105263157894</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>183.578947368421</v>
-      </c>
-      <c r="B768" t="n">
-        <v>0</v>
-      </c>
-      <c r="C768" t="n">
-        <v>4.210526315789473</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>183.8421052631579</v>
-      </c>
-      <c r="B769" t="n">
-        <v>0</v>
-      </c>
-      <c r="C769" t="n">
-        <v>1.578947368421051</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>184.1052631578947</v>
-      </c>
-      <c r="B770" t="n">
-        <v>0</v>
-      </c>
-      <c r="C770" t="n">
-        <v>-1.05263157894737</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>184.3684210526316</v>
-      </c>
-      <c r="B771" t="n">
-        <v>0</v>
-      </c>
-      <c r="C771" t="n">
-        <v>-3.684210526315791</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>184.6315789473684</v>
-      </c>
-      <c r="B772" t="n">
-        <v>0</v>
-      </c>
-      <c r="C772" t="n">
-        <v>-6.315789473684212</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>184.8947368421053</v>
-      </c>
-      <c r="B773" t="n">
-        <v>0</v>
-      </c>
-      <c r="C773" t="n">
-        <v>-8.947368421052634</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>185.1578947368421</v>
-      </c>
-      <c r="B774" t="n">
-        <v>0</v>
-      </c>
-      <c r="C774" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>185.421052631579</v>
-      </c>
-      <c r="B775" t="n">
-        <v>0</v>
-      </c>
-      <c r="C775" t="n">
-        <v>-14.21052631578948</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>185.6842105263158</v>
-      </c>
-      <c r="B776" t="n">
-        <v>0</v>
-      </c>
-      <c r="C776" t="n">
-        <v>-16.8421052631579</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>185.9473684210526</v>
-      </c>
-      <c r="B777" t="n">
-        <v>0</v>
-      </c>
-      <c r="C777" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>186.2105263157895</v>
-      </c>
-      <c r="B778" t="n">
-        <v>0</v>
-      </c>
-      <c r="C778" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>186.4736842105263</v>
-      </c>
-      <c r="B779" t="n">
-        <v>0</v>
-      </c>
-      <c r="C779" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>186.7368421052632</v>
-      </c>
-      <c r="B780" t="n">
-        <v>0</v>
-      </c>
-      <c r="C780" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B781" t="n">
-        <v>0</v>
-      </c>
-      <c r="C781" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B782" t="n">
-        <v>0</v>
-      </c>
-      <c r="C782" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>187.2631578947368</v>
-      </c>
-      <c r="B783" t="n">
-        <v>0</v>
-      </c>
-      <c r="C783" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>187.5263157894737</v>
-      </c>
-      <c r="B784" t="n">
-        <v>0</v>
-      </c>
-      <c r="C784" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" s="1" t="n">
-        <v>187.7894736842105</v>
-      </c>
-      <c r="B785" t="n">
-        <v>0</v>
-      </c>
-      <c r="C785" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" s="1" t="n">
-        <v>188.0526315789474</v>
-      </c>
-      <c r="B786" t="n">
-        <v>0</v>
-      </c>
-      <c r="C786" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" s="1" t="n">
-        <v>188.3157894736842</v>
-      </c>
-      <c r="B787" t="n">
-        <v>0</v>
-      </c>
-      <c r="C787" t="n">
-        <v>-16.84210526315789</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" s="1" t="n">
-        <v>188.578947368421</v>
-      </c>
-      <c r="B788" t="n">
-        <v>0</v>
-      </c>
-      <c r="C788" t="n">
-        <v>-14.21052631578947</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" s="1" t="n">
-        <v>188.8421052631579</v>
-      </c>
-      <c r="B789" t="n">
-        <v>0</v>
-      </c>
-      <c r="C789" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" s="1" t="n">
-        <v>189.1052631578947</v>
-      </c>
-      <c r="B790" t="n">
-        <v>0</v>
-      </c>
-      <c r="C790" t="n">
-        <v>-8.94736842105263</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" s="1" t="n">
-        <v>189.3684210526316</v>
-      </c>
-      <c r="B791" t="n">
-        <v>0</v>
-      </c>
-      <c r="C791" t="n">
-        <v>-6.315789473684209</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" s="1" t="n">
-        <v>189.6315789473684</v>
-      </c>
-      <c r="B792" t="n">
-        <v>0</v>
-      </c>
-      <c r="C792" t="n">
-        <v>-3.684210526315788</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" s="1" t="n">
-        <v>189.8947368421053</v>
-      </c>
-      <c r="B793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C793" t="n">
-        <v>-1.052631578947366</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" s="1" t="n">
-        <v>190.1578947368421</v>
-      </c>
-      <c r="B794" t="n">
-        <v>0</v>
-      </c>
-      <c r="C794" t="n">
-        <v>1.578947368421055</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" s="1" t="n">
-        <v>190.421052631579</v>
-      </c>
-      <c r="B795" t="n">
-        <v>0</v>
-      </c>
-      <c r="C795" t="n">
-        <v>4.21052631578948</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" s="1" t="n">
-        <v>190.6842105263158</v>
-      </c>
-      <c r="B796" t="n">
-        <v>0</v>
-      </c>
-      <c r="C796" t="n">
-        <v>6.842105263157897</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" s="1" t="n">
-        <v>190.9473684210526</v>
-      </c>
-      <c r="B797" t="n">
-        <v>0</v>
-      </c>
-      <c r="C797" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" s="1" t="n">
-        <v>191.2105263157895</v>
-      </c>
-      <c r="B798" t="n">
-        <v>30</v>
-      </c>
-      <c r="C798" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" s="1" t="n">
-        <v>191.4736842105263</v>
-      </c>
-      <c r="B799" t="n">
-        <v>30</v>
-      </c>
-      <c r="C799" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" s="1" t="n">
-        <v>191.7368421052632</v>
-      </c>
-      <c r="B800" t="n">
-        <v>30</v>
-      </c>
-      <c r="C800" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B801" t="n">
-        <v>30</v>
-      </c>
-      <c r="C801" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B802" t="n">
-        <v>30</v>
-      </c>
-      <c r="C802" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" s="1" t="n">
-        <v>192.2631578947368</v>
-      </c>
-      <c r="B803" t="n">
-        <v>30</v>
-      </c>
-      <c r="C803" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" s="1" t="n">
-        <v>192.5263157894737</v>
-      </c>
-      <c r="B804" t="n">
-        <v>30</v>
-      </c>
-      <c r="C804" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" s="1" t="n">
-        <v>192.7894736842105</v>
-      </c>
-      <c r="B805" t="n">
-        <v>30</v>
-      </c>
-      <c r="C805" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" s="1" t="n">
-        <v>193.0526315789474</v>
-      </c>
-      <c r="B806" t="n">
-        <v>0</v>
-      </c>
-      <c r="C806" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" s="1" t="n">
-        <v>193.3157894736842</v>
-      </c>
-      <c r="B807" t="n">
-        <v>0</v>
-      </c>
-      <c r="C807" t="n">
-        <v>6.842105263157894</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" s="1" t="n">
-        <v>193.578947368421</v>
-      </c>
-      <c r="B808" t="n">
-        <v>0</v>
-      </c>
-      <c r="C808" t="n">
-        <v>4.210526315789473</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" s="1" t="n">
-        <v>193.8421052631579</v>
-      </c>
-      <c r="B809" t="n">
-        <v>0</v>
-      </c>
-      <c r="C809" t="n">
-        <v>1.578947368421051</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" s="1" t="n">
-        <v>194.1052631578947</v>
-      </c>
-      <c r="B810" t="n">
-        <v>0</v>
-      </c>
-      <c r="C810" t="n">
-        <v>-1.05263157894737</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" s="1" t="n">
-        <v>194.3684210526316</v>
-      </c>
-      <c r="B811" t="n">
-        <v>0</v>
-      </c>
-      <c r="C811" t="n">
-        <v>-3.684210526315791</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" s="1" t="n">
-        <v>194.6315789473684</v>
-      </c>
-      <c r="B812" t="n">
-        <v>0</v>
-      </c>
-      <c r="C812" t="n">
-        <v>-6.315789473684212</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" s="1" t="n">
-        <v>194.8947368421053</v>
-      </c>
-      <c r="B813" t="n">
-        <v>0</v>
-      </c>
-      <c r="C813" t="n">
-        <v>-8.947368421052634</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" s="1" t="n">
-        <v>195.1578947368421</v>
-      </c>
-      <c r="B814" t="n">
-        <v>0</v>
-      </c>
-      <c r="C814" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" s="1" t="n">
-        <v>195.421052631579</v>
-      </c>
-      <c r="B815" t="n">
-        <v>0</v>
-      </c>
-      <c r="C815" t="n">
-        <v>-14.21052631578948</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" s="1" t="n">
-        <v>195.6842105263158</v>
-      </c>
-      <c r="B816" t="n">
-        <v>0</v>
-      </c>
-      <c r="C816" t="n">
-        <v>-16.8421052631579</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" s="1" t="n">
-        <v>195.9473684210526</v>
-      </c>
-      <c r="B817" t="n">
-        <v>0</v>
-      </c>
-      <c r="C817" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" s="1" t="n">
-        <v>196.2105263157895</v>
-      </c>
-      <c r="B818" t="n">
-        <v>0</v>
-      </c>
-      <c r="C818" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" s="1" t="n">
-        <v>196.4736842105263</v>
-      </c>
-      <c r="B819" t="n">
-        <v>0</v>
-      </c>
-      <c r="C819" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" s="1" t="n">
-        <v>196.7368421052632</v>
-      </c>
-      <c r="B820" t="n">
-        <v>0</v>
-      </c>
-      <c r="C820" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B821" t="n">
-        <v>0</v>
-      </c>
-      <c r="C821" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B822" t="n">
-        <v>0</v>
-      </c>
-      <c r="C822" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" s="1" t="n">
-        <v>197.2631578947368</v>
-      </c>
-      <c r="B823" t="n">
-        <v>0</v>
-      </c>
-      <c r="C823" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" s="1" t="n">
-        <v>197.5263157894737</v>
-      </c>
-      <c r="B824" t="n">
-        <v>0</v>
-      </c>
-      <c r="C824" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>197.7894736842105</v>
-      </c>
-      <c r="B825" t="n">
-        <v>0</v>
-      </c>
-      <c r="C825" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>198.0526315789474</v>
-      </c>
-      <c r="B826" t="n">
-        <v>0</v>
-      </c>
-      <c r="C826" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>198.3157894736842</v>
-      </c>
-      <c r="B827" t="n">
-        <v>0</v>
-      </c>
-      <c r="C827" t="n">
-        <v>-16.84210526315789</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>198.578947368421</v>
-      </c>
-      <c r="B828" t="n">
-        <v>0</v>
-      </c>
-      <c r="C828" t="n">
-        <v>-14.21052631578947</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>198.8421052631579</v>
-      </c>
-      <c r="B829" t="n">
-        <v>0</v>
-      </c>
-      <c r="C829" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>199.1052631578947</v>
-      </c>
-      <c r="B830" t="n">
-        <v>0</v>
-      </c>
-      <c r="C830" t="n">
-        <v>-8.94736842105263</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>199.3684210526316</v>
-      </c>
-      <c r="B831" t="n">
-        <v>0</v>
-      </c>
-      <c r="C831" t="n">
-        <v>-6.315789473684209</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>199.6315789473684</v>
-      </c>
-      <c r="B832" t="n">
-        <v>0</v>
-      </c>
-      <c r="C832" t="n">
-        <v>-3.684210526315788</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>199.8947368421053</v>
-      </c>
-      <c r="B833" t="n">
-        <v>0</v>
-      </c>
-      <c r="C833" t="n">
-        <v>-1.052631578947366</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>200.1578947368421</v>
-      </c>
-      <c r="B834" t="n">
-        <v>0</v>
-      </c>
-      <c r="C834" t="n">
-        <v>1.578947368421055</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>200.421052631579</v>
-      </c>
-      <c r="B835" t="n">
-        <v>0</v>
-      </c>
-      <c r="C835" t="n">
-        <v>4.21052631578948</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>200.6842105263158</v>
-      </c>
-      <c r="B836" t="n">
-        <v>0</v>
-      </c>
-      <c r="C836" t="n">
-        <v>6.842105263157897</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>200.9473684210526</v>
-      </c>
-      <c r="B837" t="n">
-        <v>0</v>
-      </c>
-      <c r="C837" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>201.2105263157895</v>
-      </c>
-      <c r="B838" t="n">
-        <v>30</v>
-      </c>
-      <c r="C838" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>201.4736842105263</v>
-      </c>
-      <c r="B839" t="n">
-        <v>30</v>
-      </c>
-      <c r="C839" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>201.7368421052632</v>
-      </c>
-      <c r="B840" t="n">
-        <v>30</v>
-      </c>
-      <c r="C840" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B841" t="n">
-        <v>30</v>
-      </c>
-      <c r="C841" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B842" t="n">
-        <v>30</v>
-      </c>
-      <c r="C842" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>202.2631578947368</v>
-      </c>
-      <c r="B843" t="n">
-        <v>30</v>
-      </c>
-      <c r="C843" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>202.5263157894737</v>
-      </c>
-      <c r="B844" t="n">
-        <v>30</v>
-      </c>
-      <c r="C844" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>202.7894736842105</v>
-      </c>
-      <c r="B845" t="n">
-        <v>30</v>
-      </c>
-      <c r="C845" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>203.0526315789474</v>
-      </c>
-      <c r="B846" t="n">
-        <v>0</v>
-      </c>
-      <c r="C846" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>203.3157894736842</v>
-      </c>
-      <c r="B847" t="n">
-        <v>0</v>
-      </c>
-      <c r="C847" t="n">
-        <v>6.842105263157894</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>203.578947368421</v>
-      </c>
-      <c r="B848" t="n">
-        <v>0</v>
-      </c>
-      <c r="C848" t="n">
-        <v>4.210526315789473</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>203.8421052631579</v>
-      </c>
-      <c r="B849" t="n">
-        <v>0</v>
-      </c>
-      <c r="C849" t="n">
-        <v>1.578947368421051</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>204.1052631578947</v>
-      </c>
-      <c r="B850" t="n">
-        <v>0</v>
-      </c>
-      <c r="C850" t="n">
-        <v>-1.05263157894737</v>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>204.3684210526316</v>
-      </c>
-      <c r="B851" t="n">
-        <v>0</v>
-      </c>
-      <c r="C851" t="n">
-        <v>-3.684210526315791</v>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>204.6315789473684</v>
-      </c>
-      <c r="B852" t="n">
-        <v>0</v>
-      </c>
-      <c r="C852" t="n">
-        <v>-6.315789473684212</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>204.8947368421053</v>
-      </c>
-      <c r="B853" t="n">
-        <v>0</v>
-      </c>
-      <c r="C853" t="n">
-        <v>-8.947368421052634</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>205.1578947368421</v>
-      </c>
-      <c r="B854" t="n">
-        <v>0</v>
-      </c>
-      <c r="C854" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>205.421052631579</v>
-      </c>
-      <c r="B855" t="n">
-        <v>0</v>
-      </c>
-      <c r="C855" t="n">
-        <v>-14.21052631578948</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>205.6842105263158</v>
-      </c>
-      <c r="B856" t="n">
-        <v>0</v>
-      </c>
-      <c r="C856" t="n">
-        <v>-16.8421052631579</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>205.9473684210526</v>
-      </c>
-      <c r="B857" t="n">
-        <v>0</v>
-      </c>
-      <c r="C857" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>206.2105263157895</v>
-      </c>
-      <c r="B858" t="n">
-        <v>0</v>
-      </c>
-      <c r="C858" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>206.4736842105263</v>
-      </c>
-      <c r="B859" t="n">
-        <v>0</v>
-      </c>
-      <c r="C859" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>206.7368421052632</v>
-      </c>
-      <c r="B860" t="n">
-        <v>0</v>
-      </c>
-      <c r="C860" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B861" t="n">
-        <v>0</v>
-      </c>
-      <c r="C861" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B862" t="n">
-        <v>0</v>
-      </c>
-      <c r="C862" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>207.2631578947368</v>
-      </c>
-      <c r="B863" t="n">
-        <v>0</v>
-      </c>
-      <c r="C863" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>207.5263157894737</v>
-      </c>
-      <c r="B864" t="n">
-        <v>0</v>
-      </c>
-      <c r="C864" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>207.7894736842105</v>
-      </c>
-      <c r="B865" t="n">
-        <v>0</v>
-      </c>
-      <c r="C865" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>208.0526315789474</v>
-      </c>
-      <c r="B866" t="n">
-        <v>0</v>
-      </c>
-      <c r="C866" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>208.3157894736842</v>
-      </c>
-      <c r="B867" t="n">
-        <v>0</v>
-      </c>
-      <c r="C867" t="n">
-        <v>-16.84210526315789</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>208.578947368421</v>
-      </c>
-      <c r="B868" t="n">
-        <v>0</v>
-      </c>
-      <c r="C868" t="n">
-        <v>-14.21052631578947</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>208.8421052631579</v>
-      </c>
-      <c r="B869" t="n">
-        <v>0</v>
-      </c>
-      <c r="C869" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>209.1052631578947</v>
-      </c>
-      <c r="B870" t="n">
-        <v>0</v>
-      </c>
-      <c r="C870" t="n">
-        <v>-8.94736842105263</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>209.3684210526316</v>
-      </c>
-      <c r="B871" t="n">
-        <v>0</v>
-      </c>
-      <c r="C871" t="n">
-        <v>-6.315789473684209</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>209.6315789473684</v>
-      </c>
-      <c r="B872" t="n">
-        <v>0</v>
-      </c>
-      <c r="C872" t="n">
-        <v>-3.684210526315788</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>209.8947368421053</v>
-      </c>
-      <c r="B873" t="n">
-        <v>0</v>
-      </c>
-      <c r="C873" t="n">
-        <v>-1.052631578947366</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>210.1578947368421</v>
-      </c>
-      <c r="B874" t="n">
-        <v>0</v>
-      </c>
-      <c r="C874" t="n">
-        <v>1.578947368421055</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>210.421052631579</v>
-      </c>
-      <c r="B875" t="n">
-        <v>0</v>
-      </c>
-      <c r="C875" t="n">
-        <v>4.21052631578948</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>210.6842105263158</v>
-      </c>
-      <c r="B876" t="n">
-        <v>0</v>
-      </c>
-      <c r="C876" t="n">
-        <v>6.842105263157897</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>210.9473684210526</v>
-      </c>
-      <c r="B877" t="n">
-        <v>0</v>
-      </c>
-      <c r="C877" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>211.2105263157895</v>
-      </c>
-      <c r="B878" t="n">
-        <v>30</v>
-      </c>
-      <c r="C878" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>211.4736842105263</v>
-      </c>
-      <c r="B879" t="n">
-        <v>30</v>
-      </c>
-      <c r="C879" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>211.7368421052632</v>
-      </c>
-      <c r="B880" t="n">
-        <v>30</v>
-      </c>
-      <c r="C880" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B881" t="n">
-        <v>30</v>
-      </c>
-      <c r="C881" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B882" t="n">
-        <v>30</v>
-      </c>
-      <c r="C882" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>212.2631578947368</v>
-      </c>
-      <c r="B883" t="n">
-        <v>30</v>
-      </c>
-      <c r="C883" t="n">
-        <v>17.36842105263158</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>212.5263157894737</v>
-      </c>
-      <c r="B884" t="n">
-        <v>30</v>
-      </c>
-      <c r="C884" t="n">
-        <v>14.73684210526316</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>212.7894736842105</v>
-      </c>
-      <c r="B885" t="n">
-        <v>30</v>
-      </c>
-      <c r="C885" t="n">
-        <v>12.10526315789474</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>213.0526315789474</v>
-      </c>
-      <c r="B886" t="n">
-        <v>0</v>
-      </c>
-      <c r="C886" t="n">
-        <v>9.473684210526315</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>213.3157894736842</v>
-      </c>
-      <c r="B887" t="n">
-        <v>0</v>
-      </c>
-      <c r="C887" t="n">
-        <v>6.842105263157894</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>213.578947368421</v>
-      </c>
-      <c r="B888" t="n">
-        <v>0</v>
-      </c>
-      <c r="C888" t="n">
-        <v>4.210526315789473</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>213.8421052631579</v>
-      </c>
-      <c r="B889" t="n">
-        <v>0</v>
-      </c>
-      <c r="C889" t="n">
-        <v>1.578947368421051</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>214.1052631578947</v>
-      </c>
-      <c r="B890" t="n">
-        <v>0</v>
-      </c>
-      <c r="C890" t="n">
-        <v>-1.05263157894737</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>214.3684210526316</v>
-      </c>
-      <c r="B891" t="n">
-        <v>0</v>
-      </c>
-      <c r="C891" t="n">
-        <v>-3.684210526315791</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>214.6315789473684</v>
-      </c>
-      <c r="B892" t="n">
-        <v>0</v>
-      </c>
-      <c r="C892" t="n">
-        <v>-6.315789473684212</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>214.8947368421053</v>
-      </c>
-      <c r="B893" t="n">
-        <v>0</v>
-      </c>
-      <c r="C893" t="n">
-        <v>-8.947368421052634</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>215.1578947368421</v>
-      </c>
-      <c r="B894" t="n">
-        <v>0</v>
-      </c>
-      <c r="C894" t="n">
-        <v>-11.57894736842105</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>215.421052631579</v>
-      </c>
-      <c r="B895" t="n">
-        <v>0</v>
-      </c>
-      <c r="C895" t="n">
-        <v>-14.21052631578948</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>215.6842105263158</v>
-      </c>
-      <c r="B896" t="n">
-        <v>0</v>
-      </c>
-      <c r="C896" t="n">
-        <v>-16.8421052631579</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>215.9473684210526</v>
-      </c>
-      <c r="B897" t="n">
-        <v>0</v>
-      </c>
-      <c r="C897" t="n">
-        <v>-19.47368421052632</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>216.2105263157895</v>
-      </c>
-      <c r="B898" t="n">
-        <v>0</v>
-      </c>
-      <c r="C898" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>216.4736842105263</v>
-      </c>
-      <c r="B899" t="n">
-        <v>0</v>
-      </c>
-      <c r="C899" t="n">
-        <v>-24.73684210526316</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>216.7368421052632</v>
-      </c>
-      <c r="B900" t="n">
-        <v>0</v>
-      </c>
-      <c r="C900" t="n">
-        <v>-27.36842105263158</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B901" t="n">
-        <v>0</v>
-      </c>
-      <c r="C901" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B902" t="n">
-        <v>0</v>
-      </c>
-      <c r="C902" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>217.1578947368421</v>
-      </c>
-      <c r="B903" t="n">
-        <v>0</v>
-      </c>
-      <c r="C903" t="n">
-        <v>-28.42105263157895</v>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>217.3157894736842</v>
-      </c>
-      <c r="B904" t="n">
-        <v>0</v>
-      </c>
-      <c r="C904" t="n">
-        <v>-26.84210526315789</v>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>217.4736842105263</v>
-      </c>
-      <c r="B905" t="n">
-        <v>0</v>
-      </c>
-      <c r="C905" t="n">
-        <v>-25.26315789473684</v>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>217.6315789473684</v>
-      </c>
-      <c r="B906" t="n">
-        <v>0</v>
-      </c>
-      <c r="C906" t="n">
-        <v>-23.68421052631579</v>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>217.7894736842105</v>
-      </c>
-      <c r="B907" t="n">
-        <v>0</v>
-      </c>
-      <c r="C907" t="n">
-        <v>-22.10526315789474</v>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>217.9473684210526</v>
-      </c>
-      <c r="B908" t="n">
-        <v>0</v>
-      </c>
-      <c r="C908" t="n">
-        <v>-20.52631578947368</v>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>218.1052631578947</v>
-      </c>
-      <c r="B909" t="n">
-        <v>0</v>
-      </c>
-      <c r="C909" t="n">
-        <v>-18.94736842105263</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>218.2631578947368</v>
-      </c>
-      <c r="B910" t="n">
-        <v>0</v>
-      </c>
-      <c r="C910" t="n">
-        <v>-17.36842105263158</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>218.421052631579</v>
-      </c>
-      <c r="B911" t="n">
-        <v>0</v>
-      </c>
-      <c r="C911" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>218.578947368421</v>
-      </c>
-      <c r="B912" t="n">
-        <v>0</v>
-      </c>
-      <c r="C912" t="n">
-        <v>-14.21052631578947</v>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>218.7368421052632</v>
-      </c>
-      <c r="B913" t="n">
-        <v>0</v>
-      </c>
-      <c r="C913" t="n">
-        <v>-12.63157894736842</v>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>218.8947368421053</v>
-      </c>
-      <c r="B914" t="n">
-        <v>0</v>
-      </c>
-      <c r="C914" t="n">
-        <v>-11.05263157894737</v>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>219.0526315789474</v>
-      </c>
-      <c r="B915" t="n">
-        <v>0</v>
-      </c>
-      <c r="C915" t="n">
-        <v>-9.473684210526315</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>219.2105263157895</v>
-      </c>
-      <c r="B916" t="n">
-        <v>0</v>
-      </c>
-      <c r="C916" t="n">
-        <v>-7.894736842105264</v>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>219.3684210526316</v>
-      </c>
-      <c r="B917" t="n">
-        <v>0</v>
-      </c>
-      <c r="C917" t="n">
-        <v>-6.315789473684209</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>219.5263157894737</v>
-      </c>
-      <c r="B918" t="n">
-        <v>0</v>
-      </c>
-      <c r="C918" t="n">
-        <v>-4.736842105263158</v>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>219.6842105263158</v>
-      </c>
-      <c r="B919" t="n">
-        <v>0</v>
-      </c>
-      <c r="C919" t="n">
-        <v>-3.157894736842106</v>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>219.8421052631579</v>
-      </c>
-      <c r="B920" t="n">
-        <v>0</v>
-      </c>
-      <c r="C920" t="n">
-        <v>-1.578947368421051</v>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B921" t="n">
-        <v>0</v>
-      </c>
-      <c r="C921" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B922" t="n">
-        <v>0</v>
-      </c>
-      <c r="C922" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B923" t="n">
-        <v>20</v>
-      </c>
-      <c r="C923" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>223.3030303030303</v>
-      </c>
-      <c r="B924" t="n">
-        <v>0</v>
-      </c>
-      <c r="C924" t="n">
-        <v>1.265924535737493</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>223.6060606060606</v>
-      </c>
-      <c r="B925" t="n">
-        <v>0</v>
-      </c>
-      <c r="C925" t="n">
-        <v>2.511479871810792</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>223.9090909090909</v>
-      </c>
-      <c r="B926" t="n">
-        <v>0</v>
-      </c>
-      <c r="C926" t="n">
-        <v>3.716624556603276</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>224.2121212121212</v>
-      </c>
-      <c r="B927" t="n">
-        <v>0</v>
-      </c>
-      <c r="C927" t="n">
-        <v>4.861967361004687</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>224.5151515151515</v>
-      </c>
-      <c r="B928" t="n">
-        <v>0</v>
-      </c>
-      <c r="C928" t="n">
-        <v>5.929079290546404</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>224.8181818181818</v>
-      </c>
-      <c r="B929" t="n">
-        <v>0</v>
-      </c>
-      <c r="C929" t="n">
-        <v>6.90079011482112</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" s="1" t="n">
-        <v>225.1212121212121</v>
-      </c>
-      <c r="B930" t="n">
-        <v>0</v>
-      </c>
-      <c r="C930" t="n">
-        <v>7.761464642917568</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" s="1" t="n">
-        <v>225.4242424242424</v>
-      </c>
-      <c r="B931" t="n">
-        <v>0</v>
-      </c>
-      <c r="C931" t="n">
-        <v>8.497254299495143</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" s="1" t="n">
-        <v>225.7272727272727</v>
-      </c>
-      <c r="B932" t="n">
-        <v>0</v>
-      </c>
-      <c r="C932" t="n">
-        <v>9.096319953545184</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" s="1" t="n">
-        <v>226.030303030303</v>
-      </c>
-      <c r="B933" t="n">
-        <v>0</v>
-      </c>
-      <c r="C933" t="n">
-        <v>9.549022414440739</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" s="1" t="n">
-        <v>226.3333333333333</v>
-      </c>
-      <c r="B934" t="n">
-        <v>0</v>
-      </c>
-      <c r="C934" t="n">
-        <v>9.84807753012208</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" s="1" t="n">
-        <v>226.6363636363636</v>
-      </c>
-      <c r="B935" t="n">
-        <v>0</v>
-      </c>
-      <c r="C935" t="n">
-        <v>9.98867339183008</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" s="1" t="n">
-        <v>226.9393939393939</v>
-      </c>
-      <c r="B936" t="n">
-        <v>0</v>
-      </c>
-      <c r="C936" t="n">
-        <v>9.968547759519424</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" s="1" t="n">
-        <v>227.2424242424242</v>
-      </c>
-      <c r="B937" t="n">
-        <v>0</v>
-      </c>
-      <c r="C937" t="n">
-        <v>9.788024462147787</v>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" s="1" t="n">
-        <v>227.5454545454546</v>
-      </c>
-      <c r="B938" t="n">
-        <v>0</v>
-      </c>
-      <c r="C938" t="n">
-        <v>9.450008187146684</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" s="1" t="n">
-        <v>227.8484848484848</v>
-      </c>
-      <c r="B939" t="n">
-        <v>0</v>
-      </c>
-      <c r="C939" t="n">
-        <v>8.959937742913359</v>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" s="1" t="n">
-        <v>228.1515151515152</v>
-      </c>
-      <c r="B940" t="n">
-        <v>0</v>
-      </c>
-      <c r="C940" t="n">
-        <v>8.325698546347715</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" s="1" t="n">
-        <v>228.4545454545454</v>
-      </c>
-      <c r="B941" t="n">
-        <v>0</v>
-      </c>
-      <c r="C941" t="n">
-        <v>7.557495743542582</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" s="1" t="n">
-        <v>228.7575757575758</v>
-      </c>
-      <c r="B942" t="n">
-        <v>0</v>
-      </c>
-      <c r="C942" t="n">
-        <v>6.667690005162916</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" s="1" t="n">
-        <v>229.0606060606061</v>
-      </c>
-      <c r="B943" t="n">
-        <v>0</v>
-      </c>
-      <c r="C943" t="n">
-        <v>5.670598638627709</v>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" s="1" t="n">
-        <v>229.3636363636364</v>
-      </c>
-      <c r="B944" t="n">
-        <v>0</v>
-      </c>
-      <c r="C944" t="n">
-        <v>4.582265217274101</v>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" s="1" t="n">
-        <v>229.6666666666667</v>
-      </c>
-      <c r="B945" t="n">
-        <v>0</v>
-      </c>
-      <c r="C945" t="n">
-        <v>3.420201433256689</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" s="1" t="n">
-        <v>229.969696969697</v>
-      </c>
-      <c r="B946" t="n">
-        <v>0</v>
-      </c>
-      <c r="C946" t="n">
-        <v>2.203105327865408</v>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" s="1" t="n">
-        <v>230.2727272727273</v>
-      </c>
-      <c r="B947" t="n">
-        <v>20</v>
-      </c>
-      <c r="C947" t="n">
-        <v>0.9505604330418244</v>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" s="1" t="n">
-        <v>230.5757575757576</v>
-      </c>
-      <c r="B948" t="n">
-        <v>20</v>
-      </c>
-      <c r="C948" t="n">
-        <v>-0.3172793349806741</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" s="1" t="n">
-        <v>230.8787878787879</v>
-      </c>
-      <c r="B949" t="n">
-        <v>20</v>
-      </c>
-      <c r="C949" t="n">
-        <v>-1.580013959733501</v>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" s="1" t="n">
-        <v>231.1818181818182</v>
-      </c>
-      <c r="B950" t="n">
-        <v>20</v>
-      </c>
-      <c r="C950" t="n">
-        <v>-2.817325568414294</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" s="1" t="n">
-        <v>231.4848484848485</v>
-      </c>
-      <c r="B951" t="n">
-        <v>20</v>
-      </c>
-      <c r="C951" t="n">
-        <v>-4.009305354066134</v>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" s="1" t="n">
-        <v>231.7878787878788</v>
-      </c>
-      <c r="B952" t="n">
-        <v>20</v>
-      </c>
-      <c r="C952" t="n">
-        <v>-5.136773915734064</v>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" s="1" t="n">
-        <v>232.0909090909091</v>
-      </c>
-      <c r="B953" t="n">
-        <v>20</v>
-      </c>
-      <c r="C953" t="n">
-        <v>-6.181589862206053</v>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" s="1" t="n">
-        <v>232.3939393939394</v>
-      </c>
-      <c r="B954" t="n">
-        <v>20</v>
-      </c>
-      <c r="C954" t="n">
-        <v>-7.126941713788632</v>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" s="1" t="n">
-        <v>232.6969696969697</v>
-      </c>
-      <c r="B955" t="n">
-        <v>20</v>
-      </c>
-      <c r="C955" t="n">
-        <v>-7.957618405308321</v>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B956" t="n">
-        <v>20</v>
-      </c>
-      <c r="C956" t="n">
-        <v>-8.660254037844386</v>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" s="1" t="n">
-        <v>233.3030303030303</v>
-      </c>
-      <c r="B957" t="n">
-        <v>20</v>
-      </c>
-      <c r="C957" t="n">
-        <v>-9.223542941045814</v>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" s="1" t="n">
-        <v>233.6060606060606</v>
-      </c>
-      <c r="B958" t="n">
-        <v>20</v>
-      </c>
-      <c r="C958" t="n">
-        <v>-9.638421585599419</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" s="1" t="n">
-        <v>233.9090909090909</v>
-      </c>
-      <c r="B959" t="n">
-        <v>20</v>
-      </c>
-      <c r="C959" t="n">
-        <v>-9.898214418809326</v>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" s="1" t="n">
-        <v>234.2121212121212</v>
-      </c>
-      <c r="B960" t="n">
-        <v>20</v>
-      </c>
-      <c r="C960" t="n">
-        <v>-9.99874127673875</v>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" s="1" t="n">
-        <v>234.5151515151515</v>
-      </c>
-      <c r="B961" t="n">
-        <v>20</v>
-      </c>
-      <c r="C961" t="n">
-        <v>-9.93838464461254</v>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" s="1" t="n">
-        <v>234.8181818181818</v>
-      </c>
-      <c r="B962" t="n">
-        <v>20</v>
-      </c>
-      <c r="C962" t="n">
-        <v>-9.718115683235416</v>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" s="1" t="n">
-        <v>235.1212121212121</v>
-      </c>
-      <c r="B963" t="n">
-        <v>20</v>
-      </c>
-      <c r="C963" t="n">
-        <v>-9.341478602651067</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" s="1" t="n">
-        <v>235.4242424242424</v>
-      </c>
-      <c r="B964" t="n">
-        <v>20</v>
-      </c>
-      <c r="C964" t="n">
-        <v>-8.81453363447582</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" s="1" t="n">
-        <v>235.7272727272727</v>
-      </c>
-      <c r="B965" t="n">
-        <v>20</v>
-      </c>
-      <c r="C965" t="n">
-        <v>-8.145759520503354</v>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" s="1" t="n">
-        <v>236.030303030303</v>
-      </c>
-      <c r="B966" t="n">
-        <v>20</v>
-      </c>
-      <c r="C966" t="n">
-        <v>-7.345917086575331</v>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" s="1" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="B967" t="n">
-        <v>20</v>
-      </c>
-      <c r="C967" t="n">
-        <v>-6.427876096865396</v>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" s="1" t="n">
-        <v>236.6363636363636</v>
-      </c>
-      <c r="B968" t="n">
-        <v>20</v>
-      </c>
-      <c r="C968" t="n">
-        <v>-5.406408174555974</v>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" s="1" t="n">
-        <v>236.9393939393939</v>
-      </c>
-      <c r="B969" t="n">
-        <v>20</v>
-      </c>
-      <c r="C969" t="n">
-        <v>-4.297949120891719</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" s="1" t="n">
-        <v>237.2424242424242</v>
-      </c>
-      <c r="B970" t="n">
-        <v>20</v>
-      </c>
-      <c r="C970" t="n">
-        <v>-3.120334456984879</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" s="1" t="n">
-        <v>237.5454545454546</v>
-      </c>
-      <c r="B971" t="n">
-        <v>20</v>
-      </c>
-      <c r="C971" t="n">
-        <v>-1.892512443604097</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" s="1" t="n">
-        <v>237.8484848484848</v>
-      </c>
-      <c r="B972" t="n">
-        <v>20</v>
-      </c>
-      <c r="C972" t="n">
-        <v>-0.6342391965656452</v>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" s="1" t="n">
-        <v>238.1515151515152</v>
-      </c>
-      <c r="B973" t="n">
-        <v>20</v>
-      </c>
-      <c r="C973" t="n">
-        <v>0.6342391965656403</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" s="1" t="n">
-        <v>238.4545454545454</v>
-      </c>
-      <c r="B974" t="n">
-        <v>0</v>
-      </c>
-      <c r="C974" t="n">
-        <v>1.892512443604101</v>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" s="1" t="n">
-        <v>238.7575757575758</v>
-      </c>
-      <c r="B975" t="n">
-        <v>0</v>
-      </c>
-      <c r="C975" t="n">
-        <v>3.120334456984875</v>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" s="1" t="n">
-        <v>239.0606060606061</v>
-      </c>
-      <c r="B976" t="n">
-        <v>0</v>
-      </c>
-      <c r="C976" t="n">
-        <v>4.297949120891723</v>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" s="1" t="n">
-        <v>239.3636363636364</v>
-      </c>
-      <c r="B977" t="n">
-        <v>0</v>
-      </c>
-      <c r="C977" t="n">
-        <v>5.406408174555971</v>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" s="1" t="n">
-        <v>239.6666666666667</v>
-      </c>
-      <c r="B978" t="n">
-        <v>0</v>
-      </c>
-      <c r="C978" t="n">
-        <v>6.427876096865399</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" s="1" t="n">
-        <v>239.969696969697</v>
-      </c>
-      <c r="B979" t="n">
-        <v>0</v>
-      </c>
-      <c r="C979" t="n">
-        <v>7.345917086575328</v>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" s="1" t="n">
-        <v>240.2727272727273</v>
-      </c>
-      <c r="B980" t="n">
-        <v>0</v>
-      </c>
-      <c r="C980" t="n">
-        <v>8.145759520503356</v>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" s="1" t="n">
-        <v>240.5757575757576</v>
-      </c>
-      <c r="B981" t="n">
-        <v>0</v>
-      </c>
-      <c r="C981" t="n">
-        <v>8.81453363447582</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" s="1" t="n">
-        <v>240.8787878787879</v>
-      </c>
-      <c r="B982" t="n">
-        <v>0</v>
-      </c>
-      <c r="C982" t="n">
-        <v>9.341478602651067</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" s="1" t="n">
-        <v>241.1818181818182</v>
-      </c>
-      <c r="B983" t="n">
-        <v>0</v>
-      </c>
-      <c r="C983" t="n">
-        <v>9.718115683235418</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" s="1" t="n">
-        <v>241.4848484848485</v>
-      </c>
-      <c r="B984" t="n">
-        <v>0</v>
-      </c>
-      <c r="C984" t="n">
-        <v>9.93838464461254</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" s="1" t="n">
-        <v>241.7878787878788</v>
-      </c>
-      <c r="B985" t="n">
-        <v>0</v>
-      </c>
-      <c r="C985" t="n">
-        <v>9.99874127673875</v>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" s="1" t="n">
-        <v>242.0909090909091</v>
-      </c>
-      <c r="B986" t="n">
-        <v>0</v>
-      </c>
-      <c r="C986" t="n">
-        <v>9.898214418809328</v>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" s="1" t="n">
-        <v>242.3939393939394</v>
-      </c>
-      <c r="B987" t="n">
-        <v>0</v>
-      </c>
-      <c r="C987" t="n">
-        <v>9.638421585599421</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" s="1" t="n">
-        <v>242.6969696969697</v>
-      </c>
-      <c r="B988" t="n">
-        <v>0</v>
-      </c>
-      <c r="C988" t="n">
-        <v>9.223542941045809</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B989" t="n">
-        <v>0</v>
-      </c>
-      <c r="C989" t="n">
-        <v>8.660254037844391</v>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" s="1" t="n">
-        <v>243.3030303030303</v>
-      </c>
-      <c r="B990" t="n">
-        <v>0</v>
-      </c>
-      <c r="C990" t="n">
-        <v>7.957618405308319</v>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" s="1" t="n">
-        <v>243.6060606060606</v>
-      </c>
-      <c r="B991" t="n">
-        <v>0</v>
-      </c>
-      <c r="C991" t="n">
-        <v>7.12694171378863</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" s="1" t="n">
-        <v>243.9090909090909</v>
-      </c>
-      <c r="B992" t="n">
-        <v>0</v>
-      </c>
-      <c r="C992" t="n">
-        <v>6.181589862206057</v>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" s="1" t="n">
-        <v>244.2121212121212</v>
-      </c>
-      <c r="B993" t="n">
-        <v>0</v>
-      </c>
-      <c r="C993" t="n">
-        <v>5.136773915734071</v>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" s="1" t="n">
-        <v>244.5151515151515</v>
-      </c>
-      <c r="B994" t="n">
-        <v>0</v>
-      </c>
-      <c r="C994" t="n">
-        <v>4.009305354066134</v>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" s="1" t="n">
-        <v>244.8181818181818</v>
-      </c>
-      <c r="B995" t="n">
-        <v>0</v>
-      </c>
-      <c r="C995" t="n">
-        <v>2.817325568414299</v>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" s="1" t="n">
-        <v>245.1212121212121</v>
-      </c>
-      <c r="B996" t="n">
-        <v>0</v>
-      </c>
-      <c r="C996" t="n">
-        <v>1.580013959733506</v>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" s="1" t="n">
-        <v>245.4242424242424</v>
-      </c>
-      <c r="B997" t="n">
-        <v>20</v>
-      </c>
-      <c r="C997" t="n">
-        <v>0.3172793349806879</v>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" s="1" t="n">
-        <v>245.7272727272727</v>
-      </c>
-      <c r="B998" t="n">
-        <v>20</v>
-      </c>
-      <c r="C998" t="n">
-        <v>-0.9505604330418106</v>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" s="1" t="n">
-        <v>246.030303030303</v>
-      </c>
-      <c r="B999" t="n">
-        <v>20</v>
-      </c>
-      <c r="C999" t="n">
-        <v>-2.203105327865403</v>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1" t="n">
-        <v>246.3333333333333</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>-3.42020143325668</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="1" t="n">
-        <v>246.6363636363636</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>-4.582265217274109</v>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="1" t="n">
-        <v>246.9393939393939</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>-5.670598638627707</v>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="1" t="n">
-        <v>247.2424242424242</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>-6.667690005162913</v>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="1" t="n">
-        <v>247.5454545454545</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>-7.557495743542589</v>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="1" t="n">
-        <v>247.8484848484848</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>-8.325698546347716</v>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="1" t="n">
-        <v>248.1515151515152</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>-8.959937742913359</v>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="1" t="n">
-        <v>248.4545454545455</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>-9.45000818714669</v>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="1" t="n">
-        <v>248.7575757575758</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>-9.788024462147789</v>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="1" t="n">
-        <v>249.0606060606061</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>-9.968547759519424</v>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="1" t="n">
-        <v>249.3636363636364</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>-9.98867339183008</v>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="1" t="n">
-        <v>249.6666666666667</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>-9.848077530122081</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="1" t="n">
-        <v>249.969696969697</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>-9.549022414440742</v>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="1" t="n">
-        <v>250.2727272727273</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>-9.096319953545184</v>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="1" t="n">
-        <v>250.5757575757576</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>-8.497254299495145</v>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="1" t="n">
-        <v>250.8787878787879</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>-7.761464642917573</v>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="1" t="n">
-        <v>251.1818181818182</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>-6.900790114821116</v>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="1" t="n">
-        <v>251.4848484848485</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>-5.929079290546419</v>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="1" t="n">
-        <v>251.7878787878788</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>-4.86196736100469</v>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="1" t="n">
-        <v>252.0909090909091</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>-3.716624556603267</v>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="1" t="n">
-        <v>252.3939393939394</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>-2.511479871810805</v>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="1" t="n">
-        <v>252.6969696969697</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>-1.265924535737493</v>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>-2.266215559059192e-14</v>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>-2.266215559059192e-14</v>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="1" t="n">
-        <v>259.3030303030303</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>1.265924535737493</v>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1" t="n">
-        <v>259.6060606060606</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>2.511479871810792</v>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="1" t="n">
-        <v>259.9090909090909</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>3.716624556603276</v>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="1" t="n">
-        <v>260.2121212121212</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>4.861967361004687</v>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="1" t="n">
-        <v>260.5151515151515</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>5.929079290546404</v>
-      </c>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="1" t="n">
-        <v>260.8181818181818</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>6.90079011482112</v>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" s="1" t="n">
-        <v>261.1212121212121</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>7.761464642917568</v>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" s="1" t="n">
-        <v>261.4242424242424</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>8.497254299495143</v>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" s="1" t="n">
-        <v>261.7272727272727</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>9.096319953545184</v>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" s="1" t="n">
-        <v>262.030303030303</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>9.549022414440739</v>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" s="1" t="n">
-        <v>262.3333333333333</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>9.84807753012208</v>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" s="1" t="n">
-        <v>262.6363636363636</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>9.98867339183008</v>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" s="1" t="n">
-        <v>262.9393939393939</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>9.968547759519424</v>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" s="1" t="n">
-        <v>263.2424242424242</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1039" t="n">
-        <v>9.788024462147787</v>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" s="1" t="n">
-        <v>263.5454545454545</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1040" t="n">
-        <v>9.450008187146684</v>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="1" t="n">
-        <v>263.8484848484848</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1041" t="n">
-        <v>8.959937742913359</v>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" s="1" t="n">
-        <v>264.1515151515152</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1042" t="n">
-        <v>8.325698546347715</v>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" s="1" t="n">
-        <v>264.4545454545455</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>7.557495743542582</v>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" s="1" t="n">
-        <v>264.7575757575758</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>6.667690005162916</v>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" s="1" t="n">
-        <v>265.0606060606061</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>5.670598638627709</v>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" s="1" t="n">
-        <v>265.3636363636364</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>4.582265217274101</v>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" s="1" t="n">
-        <v>265.6666666666667</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1047" t="n">
-        <v>3.420201433256689</v>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" s="1" t="n">
-        <v>265.969696969697</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1048" t="n">
-        <v>2.203105327865408</v>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" s="1" t="n">
-        <v>266.2727272727273</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>0.9505604330418244</v>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" s="1" t="n">
-        <v>266.5757575757576</v>
-      </c>
-      <c r="B1050" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1050" t="n">
-        <v>-0.3172793349806741</v>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" s="1" t="n">
-        <v>266.8787878787879</v>
-      </c>
-      <c r="B1051" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1051" t="n">
-        <v>-1.580013959733501</v>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" s="1" t="n">
-        <v>267.1818181818182</v>
-      </c>
-      <c r="B1052" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1052" t="n">
-        <v>-2.817325568414294</v>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" s="1" t="n">
-        <v>267.4848484848485</v>
-      </c>
-      <c r="B1053" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1053" t="n">
-        <v>-4.009305354066134</v>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" s="1" t="n">
-        <v>267.7878787878788</v>
-      </c>
-      <c r="B1054" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1054" t="n">
-        <v>-5.136773915734064</v>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" s="1" t="n">
-        <v>268.0909090909091</v>
-      </c>
-      <c r="B1055" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1055" t="n">
-        <v>-6.181589862206053</v>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" s="1" t="n">
-        <v>268.3939393939394</v>
-      </c>
-      <c r="B1056" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1056" t="n">
-        <v>-7.126941713788632</v>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" s="1" t="n">
-        <v>268.6969696969697</v>
-      </c>
-      <c r="B1057" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1057" t="n">
-        <v>-7.957618405308321</v>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B1058" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1058" t="n">
-        <v>-8.660254037844386</v>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" s="1" t="n">
-        <v>269.3030303030303</v>
-      </c>
-      <c r="B1059" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1059" t="n">
-        <v>-9.223542941045814</v>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" s="1" t="n">
-        <v>269.6060606060606</v>
-      </c>
-      <c r="B1060" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1060" t="n">
-        <v>-9.638421585599419</v>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" s="1" t="n">
-        <v>269.9090909090909</v>
-      </c>
-      <c r="B1061" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1061" t="n">
-        <v>-9.898214418809326</v>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" s="1" t="n">
-        <v>270.2121212121212</v>
-      </c>
-      <c r="B1062" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1062" t="n">
-        <v>-9.99874127673875</v>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" s="1" t="n">
-        <v>270.5151515151515</v>
-      </c>
-      <c r="B1063" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1063" t="n">
-        <v>-9.93838464461254</v>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" s="1" t="n">
-        <v>270.8181818181818</v>
-      </c>
-      <c r="B1064" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1064" t="n">
-        <v>-9.718115683235416</v>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" s="1" t="n">
-        <v>271.1212121212121</v>
-      </c>
-      <c r="B1065" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1065" t="n">
-        <v>-9.341478602651067</v>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" s="1" t="n">
-        <v>271.4242424242424</v>
-      </c>
-      <c r="B1066" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1066" t="n">
-        <v>-8.81453363447582</v>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" s="1" t="n">
-        <v>271.7272727272727</v>
-      </c>
-      <c r="B1067" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1067" t="n">
-        <v>-8.145759520503354</v>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" s="1" t="n">
-        <v>272.030303030303</v>
-      </c>
-      <c r="B1068" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1068" t="n">
-        <v>-7.345917086575331</v>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" s="1" t="n">
-        <v>272.3333333333333</v>
-      </c>
-      <c r="B1069" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1069" t="n">
-        <v>-6.427876096865396</v>
-      </c>
-    </row>
-    <row r="1070">
-      <c r="A1070" s="1" t="n">
-        <v>272.6363636363636</v>
-      </c>
-      <c r="B1070" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1070" t="n">
-        <v>-5.406408174555974</v>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" s="1" t="n">
-        <v>272.9393939393939</v>
-      </c>
-      <c r="B1071" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1071" t="n">
-        <v>-4.297949120891719</v>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" s="1" t="n">
-        <v>273.2424242424242</v>
-      </c>
-      <c r="B1072" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1072" t="n">
-        <v>-3.120334456984879</v>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" s="1" t="n">
-        <v>273.5454545454546</v>
-      </c>
-      <c r="B1073" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1073" t="n">
-        <v>-1.892512443604097</v>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" s="1" t="n">
-        <v>273.8484848484848</v>
-      </c>
-      <c r="B1074" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1074" t="n">
-        <v>-0.6342391965656452</v>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" s="1" t="n">
-        <v>274.1515151515152</v>
-      </c>
-      <c r="B1075" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1075" t="n">
-        <v>0.6342391965656403</v>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" s="1" t="n">
-        <v>274.4545454545454</v>
-      </c>
-      <c r="B1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1076" t="n">
-        <v>1.892512443604101</v>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" s="1" t="n">
-        <v>274.7575757575758</v>
-      </c>
-      <c r="B1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1077" t="n">
-        <v>3.120334456984875</v>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" s="1" t="n">
-        <v>275.0606060606061</v>
-      </c>
-      <c r="B1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1078" t="n">
-        <v>4.297949120891723</v>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" s="1" t="n">
-        <v>275.3636363636364</v>
-      </c>
-      <c r="B1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1079" t="n">
-        <v>5.406408174555971</v>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" s="1" t="n">
-        <v>275.6666666666667</v>
-      </c>
-      <c r="B1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1080" t="n">
-        <v>6.427876096865399</v>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" s="1" t="n">
-        <v>275.969696969697</v>
-      </c>
-      <c r="B1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1081" t="n">
-        <v>7.345917086575328</v>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" s="1" t="n">
-        <v>276.2727272727273</v>
-      </c>
-      <c r="B1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1082" t="n">
-        <v>8.145759520503356</v>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" s="1" t="n">
-        <v>276.5757575757576</v>
-      </c>
-      <c r="B1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1083" t="n">
-        <v>8.81453363447582</v>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" s="1" t="n">
-        <v>276.8787878787879</v>
-      </c>
-      <c r="B1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1084" t="n">
-        <v>9.341478602651067</v>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" s="1" t="n">
-        <v>277.1818181818182</v>
-      </c>
-      <c r="B1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1085" t="n">
-        <v>9.718115683235418</v>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" s="1" t="n">
-        <v>277.4848484848485</v>
-      </c>
-      <c r="B1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1086" t="n">
-        <v>9.93838464461254</v>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" s="1" t="n">
-        <v>277.7878787878788</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1087" t="n">
-        <v>9.99874127673875</v>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" s="1" t="n">
-        <v>278.0909090909091</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1088" t="n">
-        <v>9.898214418809328</v>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" s="1" t="n">
-        <v>278.3939393939394</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1089" t="n">
-        <v>9.638421585599421</v>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" s="1" t="n">
-        <v>278.6969696969697</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1090" t="n">
-        <v>9.223542941045809</v>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1091" t="n">
-        <v>8.660254037844391</v>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" s="1" t="n">
-        <v>279.3030303030303</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1092" t="n">
-        <v>7.957618405308319</v>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" s="1" t="n">
-        <v>279.6060606060606</v>
-      </c>
-      <c r="B1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1093" t="n">
-        <v>7.12694171378863</v>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" s="1" t="n">
-        <v>279.9090909090909</v>
-      </c>
-      <c r="B1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1094" t="n">
-        <v>6.181589862206057</v>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" s="1" t="n">
-        <v>280.2121212121212</v>
-      </c>
-      <c r="B1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1095" t="n">
-        <v>5.136773915734071</v>
-      </c>
-    </row>
-    <row r="1096">
-      <c r="A1096" s="1" t="n">
-        <v>280.5151515151515</v>
-      </c>
-      <c r="B1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1096" t="n">
-        <v>4.009305354066134</v>
-      </c>
-    </row>
-    <row r="1097">
-      <c r="A1097" s="1" t="n">
-        <v>280.8181818181818</v>
-      </c>
-      <c r="B1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1097" t="n">
-        <v>2.817325568414299</v>
-      </c>
-    </row>
-    <row r="1098">
-      <c r="A1098" s="1" t="n">
-        <v>281.1212121212121</v>
-      </c>
-      <c r="B1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1098" t="n">
-        <v>1.580013959733506</v>
-      </c>
-    </row>
-    <row r="1099">
-      <c r="A1099" s="1" t="n">
-        <v>281.4242424242424</v>
-      </c>
-      <c r="B1099" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1099" t="n">
-        <v>0.3172793349806879</v>
-      </c>
-    </row>
-    <row r="1100">
-      <c r="A1100" s="1" t="n">
-        <v>281.7272727272727</v>
-      </c>
-      <c r="B1100" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1100" t="n">
-        <v>-0.9505604330418106</v>
-      </c>
-    </row>
-    <row r="1101">
-      <c r="A1101" s="1" t="n">
-        <v>282.030303030303</v>
-      </c>
-      <c r="B1101" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1101" t="n">
-        <v>-2.203105327865403</v>
-      </c>
-    </row>
-    <row r="1102">
-      <c r="A1102" s="1" t="n">
-        <v>282.3333333333333</v>
-      </c>
-      <c r="B1102" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1102" t="n">
-        <v>-3.42020143325668</v>
-      </c>
-    </row>
-    <row r="1103">
-      <c r="A1103" s="1" t="n">
-        <v>282.6363636363636</v>
-      </c>
-      <c r="B1103" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1103" t="n">
-        <v>-4.582265217274109</v>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" s="1" t="n">
-        <v>282.9393939393939</v>
-      </c>
-      <c r="B1104" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1104" t="n">
-        <v>-5.670598638627707</v>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" s="1" t="n">
-        <v>283.2424242424242</v>
-      </c>
-      <c r="B1105" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1105" t="n">
-        <v>-6.667690005162913</v>
-      </c>
-    </row>
-    <row r="1106">
-      <c r="A1106" s="1" t="n">
-        <v>283.5454545454546</v>
-      </c>
-      <c r="B1106" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1106" t="n">
-        <v>-7.557495743542589</v>
-      </c>
-    </row>
-    <row r="1107">
-      <c r="A1107" s="1" t="n">
-        <v>283.8484848484848</v>
-      </c>
-      <c r="B1107" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1107" t="n">
-        <v>-8.325698546347716</v>
-      </c>
-    </row>
-    <row r="1108">
-      <c r="A1108" s="1" t="n">
-        <v>284.1515151515152</v>
-      </c>
-      <c r="B1108" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1108" t="n">
-        <v>-8.959937742913359</v>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" s="1" t="n">
-        <v>284.4545454545455</v>
-      </c>
-      <c r="B1109" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1109" t="n">
-        <v>-9.45000818714669</v>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" s="1" t="n">
-        <v>284.7575757575758</v>
-      </c>
-      <c r="B1110" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1110" t="n">
-        <v>-9.788024462147789</v>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" s="1" t="n">
-        <v>285.0606060606061</v>
-      </c>
-      <c r="B1111" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1111" t="n">
-        <v>-9.968547759519424</v>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" s="1" t="n">
-        <v>285.3636363636364</v>
-      </c>
-      <c r="B1112" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1112" t="n">
-        <v>-9.98867339183008</v>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" s="1" t="n">
-        <v>285.6666666666667</v>
-      </c>
-      <c r="B1113" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1113" t="n">
-        <v>-9.848077530122081</v>
-      </c>
-    </row>
-    <row r="1114">
-      <c r="A1114" s="1" t="n">
-        <v>285.969696969697</v>
-      </c>
-      <c r="B1114" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1114" t="n">
-        <v>-9.549022414440742</v>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" s="1" t="n">
-        <v>286.2727272727273</v>
-      </c>
-      <c r="B1115" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1115" t="n">
-        <v>-9.096319953545184</v>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" s="1" t="n">
-        <v>286.5757575757576</v>
-      </c>
-      <c r="B1116" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1116" t="n">
-        <v>-8.497254299495145</v>
-      </c>
-    </row>
-    <row r="1117">
-      <c r="A1117" s="1" t="n">
-        <v>286.8787878787879</v>
-      </c>
-      <c r="B1117" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1117" t="n">
-        <v>-7.761464642917573</v>
-      </c>
-    </row>
-    <row r="1118">
-      <c r="A1118" s="1" t="n">
-        <v>287.1818181818182</v>
-      </c>
-      <c r="B1118" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1118" t="n">
-        <v>-6.900790114821116</v>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" s="1" t="n">
-        <v>287.4848484848485</v>
-      </c>
-      <c r="B1119" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1119" t="n">
-        <v>-5.929079290546419</v>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" s="1" t="n">
-        <v>287.7878787878788</v>
-      </c>
-      <c r="B1120" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1120" t="n">
-        <v>-4.86196736100469</v>
-      </c>
-    </row>
-    <row r="1121">
-      <c r="A1121" s="1" t="n">
-        <v>288.0909090909091</v>
-      </c>
-      <c r="B1121" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1121" t="n">
-        <v>-3.716624556603267</v>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" s="1" t="n">
-        <v>288.3939393939394</v>
-      </c>
-      <c r="B1122" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1122" t="n">
-        <v>-2.511479871810805</v>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" s="1" t="n">
-        <v>288.6969696969697</v>
-      </c>
-      <c r="B1123" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1123" t="n">
-        <v>-1.265924535737493</v>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B1124" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1124" t="n">
-        <v>-2.266215559059192e-14</v>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1125" t="n">
         <v>-2.266215559059192e-14</v>
       </c>
     </row>
@@ -12826,7 +7722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12845,16 +7741,6 @@
           <t>Typing</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Light switch_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Typing_0</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -12866,13 +7752,7 @@
         <v>80</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>80</v>
-      </c>
-      <c r="E2" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -12887,12 +7767,6 @@
       <c r="C3" t="n">
         <v>80</v>
       </c>
-      <c r="D3" t="n">
-        <v>140</v>
-      </c>
-      <c r="E3" t="n">
-        <v>220</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -12904,13 +7778,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13163,9 +8031,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D4772F0-AFCD-4418-984B-928FBE44268A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC37F9BF-8660-48AF-83BA-598C1373B0BD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F68237-B269-4A93-9F45-A75FC600397F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D17EF0E-4577-444D-A999-0951FEDB20D3}"/>
 </file>